--- a/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_precious_metals.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="aim_cng" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,22 +593,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.08453608247422681</v>
+        <v>0.1460076045627376</v>
       </c>
       <c r="H2">
-        <v>-0.08453608247422681</v>
+        <v>0.1460076045627376</v>
       </c>
       <c r="I2">
-        <v>-0.004716494845360825</v>
+        <v>0.02091254752851711</v>
       </c>
       <c r="J2">
-        <v>-0.004716494845360825</v>
+        <v>0.02091254752851711</v>
       </c>
       <c r="K2">
-        <v>-10.7</v>
+        <v>-19.3</v>
       </c>
       <c r="L2">
-        <v>-0.2757731958762887</v>
+        <v>-0.3669201520912548</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +632,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>16.1</v>
+        <v>19.5</v>
       </c>
       <c r="V2">
-        <v>0.2064102564102564</v>
+        <v>0.4096638655462185</v>
       </c>
       <c r="W2">
-        <v>-1.148068669527897</v>
+        <v>14.19117647058824</v>
       </c>
       <c r="X2">
-        <v>0.3441358601024426</v>
+        <v>0.4230909424923142</v>
       </c>
       <c r="Y2">
-        <v>-1.49220452963034</v>
+        <v>13.76808552809592</v>
       </c>
       <c r="Z2">
-        <v>0.1245106219113022</v>
+        <v>0.1535587084720033</v>
       </c>
       <c r="AA2">
-        <v>-0.0005872537064373275</v>
+        <v>0.003211303789338472</v>
       </c>
       <c r="AB2">
-        <v>0.1531368391592187</v>
+        <v>0.07841713597169694</v>
       </c>
       <c r="AC2">
-        <v>-0.153724092865656</v>
+        <v>-0.07520583218235848</v>
       </c>
       <c r="AD2">
-        <v>360</v>
+        <v>380.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>360</v>
+        <v>380.7</v>
       </c>
       <c r="AG2">
-        <v>343.9</v>
+        <v>361.2</v>
       </c>
       <c r="AH2">
-        <v>0.821917808219178</v>
+        <v>0.8888629465328041</v>
       </c>
       <c r="AI2">
-        <v>1.003792103502119</v>
+        <v>1.0575</v>
       </c>
       <c r="AJ2">
-        <v>0.8151220668404835</v>
+        <v>0.8835616438356164</v>
       </c>
       <c r="AK2">
-        <v>1.003970339230455</v>
+        <v>1.06079295154185</v>
       </c>
       <c r="AL2">
-        <v>9.81</v>
+        <v>19.4</v>
       </c>
       <c r="AM2">
-        <v>8.67</v>
+        <v>19.298</v>
       </c>
       <c r="AN2">
-        <v>73.46938775510203</v>
+        <v>50.69241011984021</v>
       </c>
       <c r="AO2">
-        <v>-0.01865443425076452</v>
+        <v>0.05670103092783506</v>
       </c>
       <c r="AP2">
-        <v>70.18367346938774</v>
+        <v>48.09587217043941</v>
       </c>
       <c r="AQ2">
-        <v>-0.02110726643598616</v>
+        <v>0.05700072546377864</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +718,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.08453608247422681</v>
+        <v>0.1460076045627376</v>
       </c>
       <c r="H3">
-        <v>-0.08453608247422681</v>
+        <v>0.1460076045627376</v>
       </c>
       <c r="I3">
-        <v>-0.004716494845360825</v>
+        <v>0.02091254752851711</v>
       </c>
       <c r="J3">
-        <v>-0.004716494845360825</v>
+        <v>0.02091254752851711</v>
       </c>
       <c r="K3">
-        <v>-10.7</v>
+        <v>-19.3</v>
       </c>
       <c r="L3">
-        <v>-0.2757731958762887</v>
+        <v>-0.3669201520912548</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +757,8788 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>16.1</v>
+        <v>19.5</v>
       </c>
       <c r="V3">
-        <v>0.2064102564102564</v>
+        <v>0.4096638655462185</v>
       </c>
       <c r="W3">
-        <v>-1.148068669527897</v>
+        <v>14.19117647058824</v>
       </c>
       <c r="X3">
-        <v>0.3441358601024426</v>
+        <v>0.4230909424923142</v>
       </c>
       <c r="Y3">
-        <v>-1.49220452963034</v>
+        <v>13.76808552809592</v>
       </c>
       <c r="Z3">
-        <v>0.1245106219113022</v>
+        <v>0.1535587084720033</v>
       </c>
       <c r="AA3">
-        <v>-0.0005872537064373275</v>
+        <v>0.003211303789338472</v>
       </c>
       <c r="AB3">
-        <v>0.1531368391592187</v>
+        <v>0.07841713597169694</v>
       </c>
       <c r="AC3">
-        <v>-0.153724092865656</v>
+        <v>-0.07520583218235848</v>
       </c>
       <c r="AD3">
-        <v>360</v>
+        <v>380.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>360</v>
+        <v>380.7</v>
       </c>
       <c r="AG3">
-        <v>343.9</v>
+        <v>361.2</v>
       </c>
       <c r="AH3">
-        <v>0.821917808219178</v>
+        <v>0.8888629465328041</v>
       </c>
       <c r="AI3">
-        <v>1.003792103502119</v>
+        <v>1.0575</v>
       </c>
       <c r="AJ3">
-        <v>0.8151220668404835</v>
+        <v>0.8835616438356164</v>
       </c>
       <c r="AK3">
-        <v>1.003970339230455</v>
+        <v>1.06079295154185</v>
       </c>
       <c r="AL3">
-        <v>9.81</v>
+        <v>19.4</v>
       </c>
       <c r="AM3">
-        <v>8.67</v>
+        <v>19.298</v>
       </c>
       <c r="AN3">
-        <v>73.46938775510203</v>
+        <v>50.69241011984021</v>
       </c>
       <c r="AO3">
-        <v>-0.01865443425076452</v>
+        <v>0.05670103092783506</v>
       </c>
       <c r="AP3">
-        <v>70.18367346938774</v>
+        <v>48.09587217043941</v>
       </c>
       <c r="AQ3">
-        <v>-0.02110726643598616</v>
+        <v>0.05700072546377864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>China Nonferrous Gold Limited (AIM:CNG)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AIM:CNG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Precious Metals</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cayman Islands</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.888862946532804</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>47.6</v>
+      </c>
+      <c r="H2">
+        <v>633.9078594691121</v>
+      </c>
+      <c r="I2">
+        <v>408.8</v>
+      </c>
+      <c r="J2">
+        <v>614.4078594691121</v>
+      </c>
+      <c r="K2">
+        <v>380.7</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0784171359716969</v>
+      </c>
+      <c r="N2">
+        <v>0.0552875061000097</v>
+      </c>
+      <c r="O2">
+        <v>0.03532159304976</v>
+      </c>
+      <c r="P2">
+        <v>0.0162</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.423090942492314</v>
+      </c>
+      <c r="T2">
+        <v>0.0552875061000097</v>
+      </c>
+      <c r="U2">
+        <v>7.79943318073021</v>
+      </c>
+      <c r="V2">
+        <v>0.866806022420635</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>47.6</v>
+      </c>
+      <c r="AB2">
+        <v>0.05305397621902236</v>
+      </c>
+      <c r="AC2">
+        <v>0.03532159304976001</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>7.51</v>
+      </c>
+      <c r="AH2">
+        <v>6.41</v>
+      </c>
+      <c r="AI2">
+        <v>7.950000000000003</v>
+      </c>
+      <c r="AJ2">
+        <v>380.7</v>
+      </c>
+      <c r="AK2">
+        <v>380.7</v>
+      </c>
+      <c r="AL2">
+        <v>19.4</v>
+      </c>
+      <c r="AN2">
+        <v>19.5</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05528750610000971</v>
+      </c>
+      <c r="C2">
+        <v>633.9078594691124</v>
+      </c>
+      <c r="D2">
+        <v>614.4078594691124</v>
+      </c>
+      <c r="E2">
+        <v>-380.7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>19.5</v>
+      </c>
+      <c r="H2">
+        <v>47.6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7.51</v>
+      </c>
+      <c r="K2">
+        <v>6.41</v>
+      </c>
+      <c r="L2">
+        <v>1.1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.1</v>
+      </c>
+      <c r="Q2">
+        <v>7.51</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05528750610000971</v>
+      </c>
+      <c r="T2">
+        <v>0.8668060224206346</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.0162</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05535650610000972</v>
+      </c>
+      <c r="C3">
+        <v>628.7043783928597</v>
+      </c>
+      <c r="D3">
+        <v>613.4873783928597</v>
+      </c>
+      <c r="E3">
+        <v>-376.417</v>
+      </c>
+      <c r="F3">
+        <v>4.283</v>
+      </c>
+      <c r="G3">
+        <v>19.5</v>
+      </c>
+      <c r="H3">
+        <v>47.6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7.51</v>
+      </c>
+      <c r="K3">
+        <v>6.41</v>
+      </c>
+      <c r="L3">
+        <v>1.1</v>
+      </c>
+      <c r="M3">
+        <v>0.0693846</v>
+      </c>
+      <c r="N3">
+        <v>1.0306154</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.0306154</v>
+      </c>
+      <c r="Q3">
+        <v>7.4406154</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05575202636364618</v>
+      </c>
+      <c r="T3">
+        <v>0.875561638808722</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.0162</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>15.85366205180976</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05555350610000972</v>
+      </c>
+      <c r="C4">
+        <v>621.8084518553108</v>
+      </c>
+      <c r="D4">
+        <v>610.8744518553108</v>
+      </c>
+      <c r="E4">
+        <v>-372.134</v>
+      </c>
+      <c r="F4">
+        <v>8.566000000000001</v>
+      </c>
+      <c r="G4">
+        <v>19.5</v>
+      </c>
+      <c r="H4">
+        <v>47.6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7.51</v>
+      </c>
+      <c r="K4">
+        <v>6.41</v>
+      </c>
+      <c r="L4">
+        <v>1.1</v>
+      </c>
+      <c r="M4">
+        <v>0.1935916</v>
+      </c>
+      <c r="N4">
+        <v>0.9064083999999997</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9064083999999997</v>
+      </c>
+      <c r="Q4">
+        <v>7.3164084</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05622602663266298</v>
+      </c>
+      <c r="T4">
+        <v>0.8844959412455455</v>
+      </c>
+      <c r="U4">
+        <v>0.0226</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.0226</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>5.68206471768403</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05921450610000971</v>
+      </c>
+      <c r="C5">
+        <v>572.7206136833901</v>
+      </c>
+      <c r="D5">
+        <v>566.0696136833901</v>
+      </c>
+      <c r="E5">
+        <v>-367.851</v>
+      </c>
+      <c r="F5">
+        <v>12.849</v>
+      </c>
+      <c r="G5">
+        <v>19.5</v>
+      </c>
+      <c r="H5">
+        <v>47.6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7.51</v>
+      </c>
+      <c r="K5">
+        <v>6.41</v>
+      </c>
+      <c r="L5">
+        <v>1.1</v>
+      </c>
+      <c r="M5">
+        <v>1.8014298</v>
+      </c>
+      <c r="N5">
+        <v>-0.7014298000000003</v>
+      </c>
+      <c r="O5">
+        <v>-0</v>
+      </c>
+      <c r="P5">
+        <v>-0.7014298000000003</v>
+      </c>
+      <c r="Q5">
+        <v>5.7085702</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05670980010310279</v>
+      </c>
+      <c r="T5">
+        <v>0.893614456103747</v>
+      </c>
+      <c r="U5">
+        <v>0.1402</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.1402</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>0.6106260704691349</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06226350610000972</v>
+      </c>
+      <c r="C6">
+        <v>535.8501515002484</v>
+      </c>
+      <c r="D6">
+        <v>533.4821515002484</v>
+      </c>
+      <c r="E6">
+        <v>-363.568</v>
+      </c>
+      <c r="F6">
+        <v>17.132</v>
+      </c>
+      <c r="G6">
+        <v>19.5</v>
+      </c>
+      <c r="H6">
+        <v>47.6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7.51</v>
+      </c>
+      <c r="K6">
+        <v>6.41</v>
+      </c>
+      <c r="L6">
+        <v>1.1</v>
+      </c>
+      <c r="M6">
+        <v>3.1471484</v>
+      </c>
+      <c r="N6">
+        <v>-2.047148400000001</v>
+      </c>
+      <c r="O6">
+        <v>-0</v>
+      </c>
+      <c r="P6">
+        <v>-2.047148400000001</v>
+      </c>
+      <c r="Q6">
+        <v>4.362851599999999</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05720365218751013</v>
+      </c>
+      <c r="T6">
+        <v>0.9029229400214945</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.1837</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>0.3495227616212822</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06400750610000971</v>
+      </c>
+      <c r="C7">
+        <v>514.5604747470512</v>
+      </c>
+      <c r="D7">
+        <v>516.4754747470512</v>
+      </c>
+      <c r="E7">
+        <v>-359.285</v>
+      </c>
+      <c r="F7">
+        <v>21.415</v>
+      </c>
+      <c r="G7">
+        <v>19.5</v>
+      </c>
+      <c r="H7">
+        <v>47.6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7.51</v>
+      </c>
+      <c r="K7">
+        <v>6.41</v>
+      </c>
+      <c r="L7">
+        <v>1.1</v>
+      </c>
+      <c r="M7">
+        <v>3.9339355</v>
+      </c>
+      <c r="N7">
+        <v>-2.833935500000001</v>
+      </c>
+      <c r="O7">
+        <v>-0</v>
+      </c>
+      <c r="P7">
+        <v>-2.833935500000001</v>
+      </c>
+      <c r="Q7">
+        <v>3.576064499999999</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05770790115790496</v>
+      </c>
+      <c r="T7">
+        <v>0.9124273920217206</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.1837</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>0.2796182092970257</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06575150610000971</v>
+      </c>
+      <c r="C8">
+        <v>494.3215988070343</v>
+      </c>
+      <c r="D8">
+        <v>500.5195988070344</v>
+      </c>
+      <c r="E8">
+        <v>-355.002</v>
+      </c>
+      <c r="F8">
+        <v>25.698</v>
+      </c>
+      <c r="G8">
+        <v>19.5</v>
+      </c>
+      <c r="H8">
+        <v>47.6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7.51</v>
+      </c>
+      <c r="K8">
+        <v>6.41</v>
+      </c>
+      <c r="L8">
+        <v>1.1</v>
+      </c>
+      <c r="M8">
+        <v>4.7207226</v>
+      </c>
+      <c r="N8">
+        <v>-3.620722600000001</v>
+      </c>
+      <c r="O8">
+        <v>-0</v>
+      </c>
+      <c r="P8">
+        <v>-3.620722600000001</v>
+      </c>
+      <c r="Q8">
+        <v>2.7892774</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05822287882979757</v>
+      </c>
+      <c r="T8">
+        <v>0.9221340664049305</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.1837</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.2330151744141881</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06749550610000969</v>
+      </c>
+      <c r="C9">
+        <v>475.0390526424326</v>
+      </c>
+      <c r="D9">
+        <v>485.5200526424326</v>
+      </c>
+      <c r="E9">
+        <v>-350.719</v>
+      </c>
+      <c r="F9">
+        <v>29.98100000000001</v>
+      </c>
+      <c r="G9">
+        <v>19.5</v>
+      </c>
+      <c r="H9">
+        <v>47.6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.51</v>
+      </c>
+      <c r="K9">
+        <v>6.41</v>
+      </c>
+      <c r="L9">
+        <v>1.1</v>
+      </c>
+      <c r="M9">
+        <v>5.507509700000001</v>
+      </c>
+      <c r="N9">
+        <v>-4.407509700000001</v>
+      </c>
+      <c r="O9">
+        <v>-0</v>
+      </c>
+      <c r="P9">
+        <v>-4.407509700000001</v>
+      </c>
+      <c r="Q9">
+        <v>2.002490299999999</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05874893129033301</v>
+      </c>
+      <c r="T9">
+        <v>0.9320494864738006</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.1837</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.1997272923550184</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06923950610000973</v>
+      </c>
+      <c r="C10">
+        <v>456.6293601335618</v>
+      </c>
+      <c r="D10">
+        <v>471.3933601335618</v>
+      </c>
+      <c r="E10">
+        <v>-346.436</v>
+      </c>
+      <c r="F10">
+        <v>34.264</v>
+      </c>
+      <c r="G10">
+        <v>19.5</v>
+      </c>
+      <c r="H10">
+        <v>47.6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.51</v>
+      </c>
+      <c r="K10">
+        <v>6.41</v>
+      </c>
+      <c r="L10">
+        <v>1.1</v>
+      </c>
+      <c r="M10">
+        <v>6.294296800000001</v>
+      </c>
+      <c r="N10">
+        <v>-5.194296800000001</v>
+      </c>
+      <c r="O10">
+        <v>-0</v>
+      </c>
+      <c r="P10">
+        <v>-5.194296800000001</v>
+      </c>
+      <c r="Q10">
+        <v>1.215703199999999</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.0592864196739236</v>
+      </c>
+      <c r="T10">
+        <v>0.9421804591528637</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.1837</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.1747613808106411</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07098350610000972</v>
+      </c>
+      <c r="C11">
+        <v>439.0184857624129</v>
+      </c>
+      <c r="D11">
+        <v>458.0654857624128</v>
+      </c>
+      <c r="E11">
+        <v>-342.153</v>
+      </c>
+      <c r="F11">
+        <v>38.547</v>
+      </c>
+      <c r="G11">
+        <v>19.5</v>
+      </c>
+      <c r="H11">
+        <v>47.6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.51</v>
+      </c>
+      <c r="K11">
+        <v>6.41</v>
+      </c>
+      <c r="L11">
+        <v>1.1</v>
+      </c>
+      <c r="M11">
+        <v>7.081083899999999</v>
+      </c>
+      <c r="N11">
+        <v>-5.9810839</v>
+      </c>
+      <c r="O11">
+        <v>-0</v>
+      </c>
+      <c r="P11">
+        <v>-5.9810839</v>
+      </c>
+      <c r="Q11">
+        <v>0.4289161000000004</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05983572098902167</v>
+      </c>
+      <c r="T11">
+        <v>0.952534090572126</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.1837</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.1553434496094588</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07272750610000972</v>
+      </c>
+      <c r="C12">
+        <v>422.1405367207459</v>
+      </c>
+      <c r="D12">
+        <v>445.4705367207459</v>
+      </c>
+      <c r="E12">
+        <v>-337.87</v>
+      </c>
+      <c r="F12">
+        <v>42.83000000000001</v>
+      </c>
+      <c r="G12">
+        <v>19.5</v>
+      </c>
+      <c r="H12">
+        <v>47.6</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.51</v>
+      </c>
+      <c r="K12">
+        <v>6.41</v>
+      </c>
+      <c r="L12">
+        <v>1.1</v>
+      </c>
+      <c r="M12">
+        <v>7.867871000000001</v>
+      </c>
+      <c r="N12">
+        <v>-6.767871000000001</v>
+      </c>
+      <c r="O12">
+        <v>-0</v>
+      </c>
+      <c r="P12">
+        <v>-6.767871000000001</v>
+      </c>
+      <c r="Q12">
+        <v>-0.3578710000000012</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06039722900001079</v>
+      </c>
+      <c r="T12">
+        <v>0.9631178026895941</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0.1837</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.1398091046485128</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.0744715061000097</v>
+      </c>
+      <c r="C13">
+        <v>405.9366734089671</v>
+      </c>
+      <c r="D13">
+        <v>433.5496734089671</v>
+      </c>
+      <c r="E13">
+        <v>-333.587</v>
+      </c>
+      <c r="F13">
+        <v>47.113</v>
+      </c>
+      <c r="G13">
+        <v>19.5</v>
+      </c>
+      <c r="H13">
+        <v>47.6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7.51</v>
+      </c>
+      <c r="K13">
+        <v>6.41</v>
+      </c>
+      <c r="L13">
+        <v>1.1</v>
+      </c>
+      <c r="M13">
+        <v>8.654658100000001</v>
+      </c>
+      <c r="N13">
+        <v>-7.554658100000001</v>
+      </c>
+      <c r="O13">
+        <v>-0</v>
+      </c>
+      <c r="P13">
+        <v>-7.554658100000001</v>
+      </c>
+      <c r="Q13">
+        <v>-1.144658100000001</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06097135516855023</v>
+      </c>
+      <c r="T13">
+        <v>0.973939351034421</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.1837</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.1270991860441026</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07621550610000971</v>
+      </c>
+      <c r="C14">
+        <v>390.3541903071702</v>
+      </c>
+      <c r="D14">
+        <v>422.2501903071702</v>
+      </c>
+      <c r="E14">
+        <v>-329.304</v>
+      </c>
+      <c r="F14">
+        <v>51.396</v>
+      </c>
+      <c r="G14">
+        <v>19.5</v>
+      </c>
+      <c r="H14">
+        <v>47.6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7.51</v>
+      </c>
+      <c r="K14">
+        <v>6.41</v>
+      </c>
+      <c r="L14">
+        <v>1.1</v>
+      </c>
+      <c r="M14">
+        <v>9.4414452</v>
+      </c>
+      <c r="N14">
+        <v>-8.341445200000001</v>
+      </c>
+      <c r="O14">
+        <v>-0</v>
+      </c>
+      <c r="P14">
+        <v>-8.341445200000001</v>
+      </c>
+      <c r="Q14">
+        <v>-1.931445200000001</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06155852965910194</v>
+      </c>
+      <c r="T14">
+        <v>0.9850068436598119</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.1837</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.1165075872070941</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07795950610000971</v>
+      </c>
+      <c r="C15">
+        <v>375.3457369253318</v>
+      </c>
+      <c r="D15">
+        <v>411.5247369253318</v>
+      </c>
+      <c r="E15">
+        <v>-325.021</v>
+      </c>
+      <c r="F15">
+        <v>55.679</v>
+      </c>
+      <c r="G15">
+        <v>19.5</v>
+      </c>
+      <c r="H15">
+        <v>47.6</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.51</v>
+      </c>
+      <c r="K15">
+        <v>6.41</v>
+      </c>
+      <c r="L15">
+        <v>1.1</v>
+      </c>
+      <c r="M15">
+        <v>10.2282323</v>
+      </c>
+      <c r="N15">
+        <v>-9.128232300000001</v>
+      </c>
+      <c r="O15">
+        <v>-0</v>
+      </c>
+      <c r="P15">
+        <v>-9.128232300000001</v>
+      </c>
+      <c r="Q15">
+        <v>-2.7182323</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06215920241380427</v>
+      </c>
+      <c r="T15">
+        <v>0.9963287614030283</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0.1837</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.1075454651142407</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07970350610000973</v>
+      </c>
+      <c r="C16">
+        <v>360.8686545428681</v>
+      </c>
+      <c r="D16">
+        <v>401.3306545428681</v>
+      </c>
+      <c r="E16">
+        <v>-320.738</v>
+      </c>
+      <c r="F16">
+        <v>59.96200000000001</v>
+      </c>
+      <c r="G16">
+        <v>19.5</v>
+      </c>
+      <c r="H16">
+        <v>47.6</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7.51</v>
+      </c>
+      <c r="K16">
+        <v>6.41</v>
+      </c>
+      <c r="L16">
+        <v>1.1</v>
+      </c>
+      <c r="M16">
+        <v>11.0150194</v>
+      </c>
+      <c r="N16">
+        <v>-9.915019400000002</v>
+      </c>
+      <c r="O16">
+        <v>-0</v>
+      </c>
+      <c r="P16">
+        <v>-9.915019400000002</v>
+      </c>
+      <c r="Q16">
+        <v>-3.505019400000002</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06277384430233689</v>
+      </c>
+      <c r="T16">
+        <v>1.007913979558878</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.1837</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.0998636461775092</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08144750610000971</v>
+      </c>
+      <c r="C17">
+        <v>346.8844091449671</v>
+      </c>
+      <c r="D17">
+        <v>391.6294091449671</v>
+      </c>
+      <c r="E17">
+        <v>-316.455</v>
+      </c>
+      <c r="F17">
+        <v>64.245</v>
+      </c>
+      <c r="G17">
+        <v>19.5</v>
+      </c>
+      <c r="H17">
+        <v>47.6</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7.51</v>
+      </c>
+      <c r="K17">
+        <v>6.41</v>
+      </c>
+      <c r="L17">
+        <v>1.1</v>
+      </c>
+      <c r="M17">
+        <v>11.8018065</v>
+      </c>
+      <c r="N17">
+        <v>-10.7018065</v>
+      </c>
+      <c r="O17">
+        <v>-0</v>
+      </c>
+      <c r="P17">
+        <v>-10.7018065</v>
+      </c>
+      <c r="Q17">
+        <v>-4.291806500000002</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06340294835295261</v>
+      </c>
+      <c r="T17">
+        <v>1.0197717910831</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.1837</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.09320606976567525</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08319150610000972</v>
+      </c>
+      <c r="C18">
+        <v>333.3581046625221</v>
+      </c>
+      <c r="D18">
+        <v>382.3861046625221</v>
+      </c>
+      <c r="E18">
+        <v>-312.172</v>
+      </c>
+      <c r="F18">
+        <v>68.52800000000001</v>
+      </c>
+      <c r="G18">
+        <v>19.5</v>
+      </c>
+      <c r="H18">
+        <v>47.6</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.51</v>
+      </c>
+      <c r="K18">
+        <v>6.41</v>
+      </c>
+      <c r="L18">
+        <v>1.1</v>
+      </c>
+      <c r="M18">
+        <v>12.5885936</v>
+      </c>
+      <c r="N18">
+        <v>-11.4885936</v>
+      </c>
+      <c r="O18">
+        <v>-0</v>
+      </c>
+      <c r="P18">
+        <v>-11.4885936</v>
+      </c>
+      <c r="Q18">
+        <v>-5.078593600000001</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06404703107144014</v>
+      </c>
+      <c r="T18">
+        <v>1.031911931453136</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.1837</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.08738069040532059</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08493550610000972</v>
+      </c>
+      <c r="C19">
+        <v>320.2580635542146</v>
+      </c>
+      <c r="D19">
+        <v>373.5690635542146</v>
+      </c>
+      <c r="E19">
+        <v>-307.889</v>
+      </c>
+      <c r="F19">
+        <v>72.81100000000001</v>
+      </c>
+      <c r="G19">
+        <v>19.5</v>
+      </c>
+      <c r="H19">
+        <v>47.6</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.51</v>
+      </c>
+      <c r="K19">
+        <v>6.41</v>
+      </c>
+      <c r="L19">
+        <v>1.1</v>
+      </c>
+      <c r="M19">
+        <v>13.3753807</v>
+      </c>
+      <c r="N19">
+        <v>-12.2753807</v>
+      </c>
+      <c r="O19">
+        <v>-0</v>
+      </c>
+      <c r="P19">
+        <v>-12.2753807</v>
+      </c>
+      <c r="Q19">
+        <v>-5.865380700000001</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06470663385543339</v>
+      </c>
+      <c r="T19">
+        <v>1.044344605326066</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.1837</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.08224064979324286</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08667950610000971</v>
+      </c>
+      <c r="C20">
+        <v>307.5554641063129</v>
+      </c>
+      <c r="D20">
+        <v>365.1494641063128</v>
+      </c>
+      <c r="E20">
+        <v>-303.606</v>
+      </c>
+      <c r="F20">
+        <v>77.09399999999999</v>
+      </c>
+      <c r="G20">
+        <v>19.5</v>
+      </c>
+      <c r="H20">
+        <v>47.6</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7.51</v>
+      </c>
+      <c r="K20">
+        <v>6.41</v>
+      </c>
+      <c r="L20">
+        <v>1.1</v>
+      </c>
+      <c r="M20">
+        <v>14.1621678</v>
+      </c>
+      <c r="N20">
+        <v>-13.0621678</v>
+      </c>
+      <c r="O20">
+        <v>-0</v>
+      </c>
+      <c r="P20">
+        <v>-13.0621678</v>
+      </c>
+      <c r="Q20">
+        <v>-6.652167799999999</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06538232451220696</v>
+      </c>
+      <c r="T20">
+        <v>1.057080515147115</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.1837</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.07767172480472939</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08842350610000971</v>
+      </c>
+      <c r="C21">
+        <v>295.2240256991916</v>
+      </c>
+      <c r="D21">
+        <v>357.1010256991916</v>
+      </c>
+      <c r="E21">
+        <v>-299.323</v>
+      </c>
+      <c r="F21">
+        <v>81.37700000000001</v>
+      </c>
+      <c r="G21">
+        <v>19.5</v>
+      </c>
+      <c r="H21">
+        <v>47.6</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.51</v>
+      </c>
+      <c r="K21">
+        <v>6.41</v>
+      </c>
+      <c r="L21">
+        <v>1.1</v>
+      </c>
+      <c r="M21">
+        <v>14.9489549</v>
+      </c>
+      <c r="N21">
+        <v>-13.8489549</v>
+      </c>
+      <c r="O21">
+        <v>-0</v>
+      </c>
+      <c r="P21">
+        <v>-13.8489549</v>
+      </c>
+      <c r="Q21">
+        <v>-7.438954900000002</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06607469888890087</v>
+      </c>
+      <c r="T21">
+        <v>1.070130891877327</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.1837</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.073583739288691</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09016750610000972</v>
+      </c>
+      <c r="C22">
+        <v>283.2397347993685</v>
+      </c>
+      <c r="D22">
+        <v>349.3997347993685</v>
+      </c>
+      <c r="E22">
+        <v>-295.04</v>
+      </c>
+      <c r="F22">
+        <v>85.66000000000001</v>
+      </c>
+      <c r="G22">
+        <v>19.5</v>
+      </c>
+      <c r="H22">
+        <v>47.6</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7.51</v>
+      </c>
+      <c r="K22">
+        <v>6.41</v>
+      </c>
+      <c r="L22">
+        <v>1.1</v>
+      </c>
+      <c r="M22">
+        <v>15.735742</v>
+      </c>
+      <c r="N22">
+        <v>-14.635742</v>
+      </c>
+      <c r="O22">
+        <v>-0</v>
+      </c>
+      <c r="P22">
+        <v>-14.635742</v>
+      </c>
+      <c r="Q22">
+        <v>-8.225742000000002</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06678438262501214</v>
+      </c>
+      <c r="T22">
+        <v>1.083507528025793</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.1837</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.06990455232425641</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09191150610000973</v>
+      </c>
+      <c r="C23">
+        <v>271.5806056588053</v>
+      </c>
+      <c r="D23">
+        <v>342.0236056588053</v>
+      </c>
+      <c r="E23">
+        <v>-290.757</v>
+      </c>
+      <c r="F23">
+        <v>89.943</v>
+      </c>
+      <c r="G23">
+        <v>19.5</v>
+      </c>
+      <c r="H23">
+        <v>47.6</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.51</v>
+      </c>
+      <c r="K23">
+        <v>6.41</v>
+      </c>
+      <c r="L23">
+        <v>1.1</v>
+      </c>
+      <c r="M23">
+        <v>16.5225291</v>
+      </c>
+      <c r="N23">
+        <v>-15.4225291</v>
+      </c>
+      <c r="O23">
+        <v>-0</v>
+      </c>
+      <c r="P23">
+        <v>-15.4225291</v>
+      </c>
+      <c r="Q23">
+        <v>-9.0125291</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06751203303798699</v>
+      </c>
+      <c r="T23">
+        <v>1.097222813190677</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0.1837</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.06657576411833943</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09365550610000969</v>
+      </c>
+      <c r="C24">
+        <v>260.2264706986076</v>
+      </c>
+      <c r="D24">
+        <v>334.9524706986076</v>
+      </c>
+      <c r="E24">
+        <v>-286.474</v>
+      </c>
+      <c r="F24">
+        <v>94.226</v>
+      </c>
+      <c r="G24">
+        <v>19.5</v>
+      </c>
+      <c r="H24">
+        <v>47.6</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.51</v>
+      </c>
+      <c r="K24">
+        <v>6.41</v>
+      </c>
+      <c r="L24">
+        <v>1.1</v>
+      </c>
+      <c r="M24">
+        <v>17.3093162</v>
+      </c>
+      <c r="N24">
+        <v>-16.2093162</v>
+      </c>
+      <c r="O24">
+        <v>-0</v>
+      </c>
+      <c r="P24">
+        <v>-16.2093162</v>
+      </c>
+      <c r="Q24">
+        <v>-9.799316200000003</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06825834115385859</v>
+      </c>
+      <c r="T24">
+        <v>1.111289772334147</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0.1837</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.06354959302205121</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09539950610000972</v>
+      </c>
+      <c r="C25">
+        <v>249.1587963681899</v>
+      </c>
+      <c r="D25">
+        <v>328.1677963681899</v>
+      </c>
+      <c r="E25">
+        <v>-282.191</v>
+      </c>
+      <c r="F25">
+        <v>98.509</v>
+      </c>
+      <c r="G25">
+        <v>19.5</v>
+      </c>
+      <c r="H25">
+        <v>47.6</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7.51</v>
+      </c>
+      <c r="K25">
+        <v>6.41</v>
+      </c>
+      <c r="L25">
+        <v>1.1</v>
+      </c>
+      <c r="M25">
+        <v>18.0961033</v>
+      </c>
+      <c r="N25">
+        <v>-16.9961033</v>
+      </c>
+      <c r="O25">
+        <v>-0</v>
+      </c>
+      <c r="P25">
+        <v>-16.9961033</v>
+      </c>
+      <c r="Q25">
+        <v>-10.5861033</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.0690240338961165</v>
+      </c>
+      <c r="T25">
+        <v>1.125722107039785</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0.1837</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.06078656723848375</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09714350610000971</v>
+      </c>
+      <c r="C26">
+        <v>238.3605209394686</v>
+      </c>
+      <c r="D26">
+        <v>321.6525209394686</v>
+      </c>
+      <c r="E26">
+        <v>-277.908</v>
+      </c>
+      <c r="F26">
+        <v>102.792</v>
+      </c>
+      <c r="G26">
+        <v>19.5</v>
+      </c>
+      <c r="H26">
+        <v>47.6</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>7.51</v>
+      </c>
+      <c r="K26">
+        <v>6.41</v>
+      </c>
+      <c r="L26">
+        <v>1.1</v>
+      </c>
+      <c r="M26">
+        <v>18.8828904</v>
+      </c>
+      <c r="N26">
+        <v>-17.7828904</v>
+      </c>
+      <c r="O26">
+        <v>-0</v>
+      </c>
+      <c r="P26">
+        <v>-17.7828904</v>
+      </c>
+      <c r="Q26">
+        <v>-11.3728904</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06980987644738121</v>
+      </c>
+      <c r="T26">
+        <v>1.140534240027151</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0.1837</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.0582537936035471</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09888750610000971</v>
+      </c>
+      <c r="C27">
+        <v>227.8159112470165</v>
+      </c>
+      <c r="D27">
+        <v>315.3909112470165</v>
+      </c>
+      <c r="E27">
+        <v>-273.625</v>
+      </c>
+      <c r="F27">
+        <v>107.075</v>
+      </c>
+      <c r="G27">
+        <v>19.5</v>
+      </c>
+      <c r="H27">
+        <v>47.6</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>7.51</v>
+      </c>
+      <c r="K27">
+        <v>6.41</v>
+      </c>
+      <c r="L27">
+        <v>1.1</v>
+      </c>
+      <c r="M27">
+        <v>19.6696775</v>
+      </c>
+      <c r="N27">
+        <v>-18.5696775</v>
+      </c>
+      <c r="O27">
+        <v>-0</v>
+      </c>
+      <c r="P27">
+        <v>-18.5696775</v>
+      </c>
+      <c r="Q27">
+        <v>-12.1596775</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07061667480001295</v>
+      </c>
+      <c r="T27">
+        <v>1.155741363227513</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.1837</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.05592364185940502</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1006315061000097</v>
+      </c>
+      <c r="C28">
+        <v>217.5104358417331</v>
+      </c>
+      <c r="D28">
+        <v>309.3684358417331</v>
+      </c>
+      <c r="E28">
+        <v>-269.342</v>
+      </c>
+      <c r="F28">
+        <v>111.358</v>
+      </c>
+      <c r="G28">
+        <v>19.5</v>
+      </c>
+      <c r="H28">
+        <v>47.6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7.51</v>
+      </c>
+      <c r="K28">
+        <v>6.41</v>
+      </c>
+      <c r="L28">
+        <v>1.1</v>
+      </c>
+      <c r="M28">
+        <v>20.4564646</v>
+      </c>
+      <c r="N28">
+        <v>-19.3564646</v>
+      </c>
+      <c r="O28">
+        <v>-0</v>
+      </c>
+      <c r="P28">
+        <v>-19.3564646</v>
+      </c>
+      <c r="Q28">
+        <v>-12.9464646</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07144527851352662</v>
+      </c>
+      <c r="T28">
+        <v>1.171359489757614</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0.1837</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.05377273255712023</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1023755061000097</v>
+      </c>
+      <c r="C29">
+        <v>207.4306524051945</v>
+      </c>
+      <c r="D29">
+        <v>303.5716524051945</v>
+      </c>
+      <c r="E29">
+        <v>-265.059</v>
+      </c>
+      <c r="F29">
+        <v>115.641</v>
+      </c>
+      <c r="G29">
+        <v>19.5</v>
+      </c>
+      <c r="H29">
+        <v>47.6</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>7.51</v>
+      </c>
+      <c r="K29">
+        <v>6.41</v>
+      </c>
+      <c r="L29">
+        <v>1.1</v>
+      </c>
+      <c r="M29">
+        <v>21.2432517</v>
+      </c>
+      <c r="N29">
+        <v>-20.1432517</v>
+      </c>
+      <c r="O29">
+        <v>-0</v>
+      </c>
+      <c r="P29">
+        <v>-20.1432517</v>
+      </c>
+      <c r="Q29">
+        <v>-13.7332517</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07229658369864345</v>
+      </c>
+      <c r="T29">
+        <v>1.187405510165253</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0.1837</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.05178114986981963</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1041195061000097</v>
+      </c>
+      <c r="C30">
+        <v>197.5641075886221</v>
+      </c>
+      <c r="D30">
+        <v>297.9881075886221</v>
+      </c>
+      <c r="E30">
+        <v>-260.776</v>
+      </c>
+      <c r="F30">
+        <v>119.924</v>
+      </c>
+      <c r="G30">
+        <v>19.5</v>
+      </c>
+      <c r="H30">
+        <v>47.6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>7.51</v>
+      </c>
+      <c r="K30">
+        <v>6.41</v>
+      </c>
+      <c r="L30">
+        <v>1.1</v>
+      </c>
+      <c r="M30">
+        <v>22.0300388</v>
+      </c>
+      <c r="N30">
+        <v>-20.93003880000001</v>
+      </c>
+      <c r="O30">
+        <v>-0</v>
+      </c>
+      <c r="P30">
+        <v>-20.93003880000001</v>
+      </c>
+      <c r="Q30">
+        <v>-14.52003880000001</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07317153625001349</v>
+      </c>
+      <c r="T30">
+        <v>1.203897253361992</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0.1837</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.04993182308875455</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1058635061000097</v>
+      </c>
+      <c r="C31">
+        <v>187.8992477056938</v>
+      </c>
+      <c r="D31">
+        <v>292.6062477056938</v>
+      </c>
+      <c r="E31">
+        <v>-256.493</v>
+      </c>
+      <c r="F31">
+        <v>124.207</v>
+      </c>
+      <c r="G31">
+        <v>19.5</v>
+      </c>
+      <c r="H31">
+        <v>47.6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7.51</v>
+      </c>
+      <c r="K31">
+        <v>6.41</v>
+      </c>
+      <c r="L31">
+        <v>1.1</v>
+      </c>
+      <c r="M31">
+        <v>22.8168259</v>
+      </c>
+      <c r="N31">
+        <v>-21.7168259</v>
+      </c>
+      <c r="O31">
+        <v>-0</v>
+      </c>
+      <c r="P31">
+        <v>-21.7168259</v>
+      </c>
+      <c r="Q31">
+        <v>-15.3068259</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07407113535212635</v>
+      </c>
+      <c r="T31">
+        <v>1.220853552705119</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.1837</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.04821003608569419</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1076075061000097</v>
+      </c>
+      <c r="C32">
+        <v>178.4253389313466</v>
+      </c>
+      <c r="D32">
+        <v>287.4153389313466</v>
+      </c>
+      <c r="E32">
+        <v>-252.21</v>
+      </c>
+      <c r="F32">
+        <v>128.49</v>
+      </c>
+      <c r="G32">
+        <v>19.5</v>
+      </c>
+      <c r="H32">
+        <v>47.6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>7.51</v>
+      </c>
+      <c r="K32">
+        <v>6.41</v>
+      </c>
+      <c r="L32">
+        <v>1.1</v>
+      </c>
+      <c r="M32">
+        <v>23.603613</v>
+      </c>
+      <c r="N32">
+        <v>-22.503613</v>
+      </c>
+      <c r="O32">
+        <v>-0</v>
+      </c>
+      <c r="P32">
+        <v>-22.503613</v>
+      </c>
+      <c r="Q32">
+        <v>-16.093613</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07499643728572816</v>
+      </c>
+      <c r="T32">
+        <v>1.238294317743764</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0.1837</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.04660303488283768</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1093515061000097</v>
+      </c>
+      <c r="C33">
+        <v>169.1323958466795</v>
+      </c>
+      <c r="D33">
+        <v>282.4053958466795</v>
+      </c>
+      <c r="E33">
+        <v>-247.927</v>
+      </c>
+      <c r="F33">
+        <v>132.773</v>
+      </c>
+      <c r="G33">
+        <v>19.5</v>
+      </c>
+      <c r="H33">
+        <v>47.6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>7.51</v>
+      </c>
+      <c r="K33">
+        <v>6.41</v>
+      </c>
+      <c r="L33">
+        <v>1.1</v>
+      </c>
+      <c r="M33">
+        <v>24.3904001</v>
+      </c>
+      <c r="N33">
+        <v>-23.2904001</v>
+      </c>
+      <c r="O33">
+        <v>-0</v>
+      </c>
+      <c r="P33">
+        <v>-23.2904001</v>
+      </c>
+      <c r="Q33">
+        <v>-16.8804001</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07594855956523147</v>
+      </c>
+      <c r="T33">
+        <v>1.256240612203818</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.1837</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.04509971117693967</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1110955061000097</v>
+      </c>
+      <c r="C34">
+        <v>160.0111173290332</v>
+      </c>
+      <c r="D34">
+        <v>277.5671173290332</v>
+      </c>
+      <c r="E34">
+        <v>-243.644</v>
+      </c>
+      <c r="F34">
+        <v>137.056</v>
+      </c>
+      <c r="G34">
+        <v>19.5</v>
+      </c>
+      <c r="H34">
+        <v>47.6</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>7.51</v>
+      </c>
+      <c r="K34">
+        <v>6.41</v>
+      </c>
+      <c r="L34">
+        <v>1.1</v>
+      </c>
+      <c r="M34">
+        <v>25.1771872</v>
+      </c>
+      <c r="N34">
+        <v>-24.0771872</v>
+      </c>
+      <c r="O34">
+        <v>-0</v>
+      </c>
+      <c r="P34">
+        <v>-24.0771872</v>
+      </c>
+      <c r="Q34">
+        <v>-17.6671872</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07692868544119076</v>
+      </c>
+      <c r="T34">
+        <v>1.274714738853875</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0.1837</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.04369034520266024</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1128395061000097</v>
+      </c>
+      <c r="C35">
+        <v>151.0528289212031</v>
+      </c>
+      <c r="D35">
+        <v>272.8918289212031</v>
+      </c>
+      <c r="E35">
+        <v>-239.361</v>
+      </c>
+      <c r="F35">
+        <v>141.339</v>
+      </c>
+      <c r="G35">
+        <v>19.5</v>
+      </c>
+      <c r="H35">
+        <v>47.6</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>7.51</v>
+      </c>
+      <c r="K35">
+        <v>6.41</v>
+      </c>
+      <c r="L35">
+        <v>1.1</v>
+      </c>
+      <c r="M35">
+        <v>25.9639743</v>
+      </c>
+      <c r="N35">
+        <v>-24.8639743</v>
+      </c>
+      <c r="O35">
+        <v>-0</v>
+      </c>
+      <c r="P35">
+        <v>-24.8639743</v>
+      </c>
+      <c r="Q35">
+        <v>-18.4539743</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07793806880598465</v>
+      </c>
+      <c r="T35">
+        <v>1.293740331971097</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0.1837</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.0423663953480341</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1145835061000097</v>
+      </c>
+      <c r="C36">
+        <v>142.2494309285061</v>
+      </c>
+      <c r="D36">
+        <v>268.3714309285061</v>
+      </c>
+      <c r="E36">
+        <v>-235.078</v>
+      </c>
+      <c r="F36">
+        <v>145.622</v>
+      </c>
+      <c r="G36">
+        <v>19.5</v>
+      </c>
+      <c r="H36">
+        <v>47.6</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7.51</v>
+      </c>
+      <c r="K36">
+        <v>6.41</v>
+      </c>
+      <c r="L36">
+        <v>1.1</v>
+      </c>
+      <c r="M36">
+        <v>26.7507614</v>
+      </c>
+      <c r="N36">
+        <v>-25.6507614</v>
+      </c>
+      <c r="O36">
+        <v>-0</v>
+      </c>
+      <c r="P36">
+        <v>-25.6507614</v>
+      </c>
+      <c r="Q36">
+        <v>-19.2407614</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07897803954546927</v>
+      </c>
+      <c r="T36">
+        <v>1.313342458213083</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0.1837</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.04112032489662154</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1163275061000097</v>
+      </c>
+      <c r="C37">
+        <v>133.5933515903595</v>
+      </c>
+      <c r="D37">
+        <v>263.9983515903595</v>
+      </c>
+      <c r="E37">
+        <v>-230.795</v>
+      </c>
+      <c r="F37">
+        <v>149.905</v>
+      </c>
+      <c r="G37">
+        <v>19.5</v>
+      </c>
+      <c r="H37">
+        <v>47.6</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>7.51</v>
+      </c>
+      <c r="K37">
+        <v>6.41</v>
+      </c>
+      <c r="L37">
+        <v>1.1</v>
+      </c>
+      <c r="M37">
+        <v>27.53754850000001</v>
+      </c>
+      <c r="N37">
+        <v>-26.43754850000001</v>
+      </c>
+      <c r="O37">
+        <v>-0</v>
+      </c>
+      <c r="P37">
+        <v>-26.43754850000001</v>
+      </c>
+      <c r="Q37">
+        <v>-20.02754850000001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08005000938463033</v>
+      </c>
+      <c r="T37">
+        <v>1.333547726800977</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0.1837</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.03994545847100373</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1180715061000097</v>
+      </c>
+      <c r="C38">
+        <v>125.0775047568307</v>
+      </c>
+      <c r="D38">
+        <v>259.7655047568307</v>
+      </c>
+      <c r="E38">
+        <v>-226.512</v>
+      </c>
+      <c r="F38">
+        <v>154.188</v>
+      </c>
+      <c r="G38">
+        <v>19.5</v>
+      </c>
+      <c r="H38">
+        <v>47.6</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>7.51</v>
+      </c>
+      <c r="K38">
+        <v>6.41</v>
+      </c>
+      <c r="L38">
+        <v>1.1</v>
+      </c>
+      <c r="M38">
+        <v>28.3243356</v>
+      </c>
+      <c r="N38">
+        <v>-27.2243356</v>
+      </c>
+      <c r="O38">
+        <v>-0</v>
+      </c>
+      <c r="P38">
+        <v>-27.2243356</v>
+      </c>
+      <c r="Q38">
+        <v>-20.8143356</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08115547828126517</v>
+      </c>
+      <c r="T38">
+        <v>1.354384410032242</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0.1837</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.03883586240236481</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1198155061000097</v>
+      </c>
+      <c r="C39">
+        <v>116.6952515725224</v>
+      </c>
+      <c r="D39">
+        <v>255.6662515725223</v>
+      </c>
+      <c r="E39">
+        <v>-222.229</v>
+      </c>
+      <c r="F39">
+        <v>158.471</v>
+      </c>
+      <c r="G39">
+        <v>19.5</v>
+      </c>
+      <c r="H39">
+        <v>47.6</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>7.51</v>
+      </c>
+      <c r="K39">
+        <v>6.41</v>
+      </c>
+      <c r="L39">
+        <v>1.1</v>
+      </c>
+      <c r="M39">
+        <v>29.1111227</v>
+      </c>
+      <c r="N39">
+        <v>-28.0111227</v>
+      </c>
+      <c r="O39">
+        <v>-0</v>
+      </c>
+      <c r="P39">
+        <v>-28.0111227</v>
+      </c>
+      <c r="Q39">
+        <v>-21.6011227</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08229604142858686</v>
+      </c>
+      <c r="T39">
+        <v>1.375882575270849</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.1837</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.037786244499598</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1215595061000097</v>
+      </c>
+      <c r="C40">
+        <v>108.4403657320016</v>
+      </c>
+      <c r="D40">
+        <v>251.6943657320016</v>
+      </c>
+      <c r="E40">
+        <v>-217.946</v>
+      </c>
+      <c r="F40">
+        <v>162.754</v>
+      </c>
+      <c r="G40">
+        <v>19.5</v>
+      </c>
+      <c r="H40">
+        <v>47.6</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>7.51</v>
+      </c>
+      <c r="K40">
+        <v>6.41</v>
+      </c>
+      <c r="L40">
+        <v>1.1</v>
+      </c>
+      <c r="M40">
+        <v>29.8979098</v>
+      </c>
+      <c r="N40">
+        <v>-28.79790980000001</v>
+      </c>
+      <c r="O40">
+        <v>-0</v>
+      </c>
+      <c r="P40">
+        <v>-28.79790980000001</v>
+      </c>
+      <c r="Q40">
+        <v>-22.38790980000001</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08347339693549953</v>
+      </c>
+      <c r="T40">
+        <v>1.398074229710701</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0.1837</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.03679186964434544</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1233035061000097</v>
+      </c>
+      <c r="C41">
+        <v>100.3070019243172</v>
+      </c>
+      <c r="D41">
+        <v>247.8440019243172</v>
+      </c>
+      <c r="E41">
+        <v>-213.663</v>
+      </c>
+      <c r="F41">
+        <v>167.037</v>
+      </c>
+      <c r="G41">
+        <v>19.5</v>
+      </c>
+      <c r="H41">
+        <v>47.6</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7.51</v>
+      </c>
+      <c r="K41">
+        <v>6.41</v>
+      </c>
+      <c r="L41">
+        <v>1.1</v>
+      </c>
+      <c r="M41">
+        <v>30.6846969</v>
+      </c>
+      <c r="N41">
+        <v>-29.5846969</v>
+      </c>
+      <c r="O41">
+        <v>-0</v>
+      </c>
+      <c r="P41">
+        <v>-29.5846969</v>
+      </c>
+      <c r="Q41">
+        <v>-23.1746969</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.084689354262311</v>
+      </c>
+      <c r="T41">
+        <v>1.42099347937809</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0.1837</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.03584848837141352</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1250475061000097</v>
+      </c>
+      <c r="C42">
+        <v>92.28966713024786</v>
+      </c>
+      <c r="D42">
+        <v>244.1096671302479</v>
+      </c>
+      <c r="E42">
+        <v>-209.38</v>
+      </c>
+      <c r="F42">
+        <v>171.32</v>
+      </c>
+      <c r="G42">
+        <v>19.5</v>
+      </c>
+      <c r="H42">
+        <v>47.6</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>7.51</v>
+      </c>
+      <c r="K42">
+        <v>6.41</v>
+      </c>
+      <c r="L42">
+        <v>1.1</v>
+      </c>
+      <c r="M42">
+        <v>31.471484</v>
+      </c>
+      <c r="N42">
+        <v>-30.371484</v>
+      </c>
+      <c r="O42">
+        <v>-0</v>
+      </c>
+      <c r="P42">
+        <v>-30.371484</v>
+      </c>
+      <c r="Q42">
+        <v>-23.961484</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08594584350001619</v>
+      </c>
+      <c r="T42">
+        <v>1.444676704034391</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0.1837</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.03495227616212826</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1267915061000097</v>
+      </c>
+      <c r="C43">
+        <v>84.38319447586923</v>
+      </c>
+      <c r="D43">
+        <v>240.4861944758692</v>
+      </c>
+      <c r="E43">
+        <v>-205.097</v>
+      </c>
+      <c r="F43">
+        <v>175.603</v>
+      </c>
+      <c r="G43">
+        <v>19.5</v>
+      </c>
+      <c r="H43">
+        <v>47.6</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>7.51</v>
+      </c>
+      <c r="K43">
+        <v>6.41</v>
+      </c>
+      <c r="L43">
+        <v>1.1</v>
+      </c>
+      <c r="M43">
+        <v>32.2582711</v>
+      </c>
+      <c r="N43">
+        <v>-31.1582711</v>
+      </c>
+      <c r="O43">
+        <v>-0</v>
+      </c>
+      <c r="P43">
+        <v>-31.1582711</v>
+      </c>
+      <c r="Q43">
+        <v>-24.7482711</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08724492559323681</v>
+      </c>
+      <c r="T43">
+        <v>1.469162749865482</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0.1837</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.03409978162158855</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1285355061000097</v>
+      </c>
+      <c r="C44">
+        <v>76.58271938070644</v>
+      </c>
+      <c r="D44">
+        <v>236.9687193807064</v>
+      </c>
+      <c r="E44">
+        <v>-200.814</v>
+      </c>
+      <c r="F44">
+        <v>179.886</v>
+      </c>
+      <c r="G44">
+        <v>19.5</v>
+      </c>
+      <c r="H44">
+        <v>47.6</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>7.51</v>
+      </c>
+      <c r="K44">
+        <v>6.41</v>
+      </c>
+      <c r="L44">
+        <v>1.1</v>
+      </c>
+      <c r="M44">
+        <v>33.0450582</v>
+      </c>
+      <c r="N44">
+        <v>-31.9450582</v>
+      </c>
+      <c r="O44">
+        <v>-0</v>
+      </c>
+      <c r="P44">
+        <v>-31.9450582</v>
+      </c>
+      <c r="Q44">
+        <v>-25.5350582</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.0885888036207064</v>
+      </c>
+      <c r="T44">
+        <v>1.494493142104542</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0.1837</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.03328788205916977</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1302795061000097</v>
+      </c>
+      <c r="C45">
+        <v>68.88365776892971</v>
+      </c>
+      <c r="D45">
+        <v>233.5526577689297</v>
+      </c>
+      <c r="E45">
+        <v>-196.531</v>
+      </c>
+      <c r="F45">
+        <v>184.169</v>
+      </c>
+      <c r="G45">
+        <v>19.5</v>
+      </c>
+      <c r="H45">
+        <v>47.6</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>7.51</v>
+      </c>
+      <c r="K45">
+        <v>6.41</v>
+      </c>
+      <c r="L45">
+        <v>1.1</v>
+      </c>
+      <c r="M45">
+        <v>33.8318453</v>
+      </c>
+      <c r="N45">
+        <v>-32.7318453</v>
+      </c>
+      <c r="O45">
+        <v>-0</v>
+      </c>
+      <c r="P45">
+        <v>-32.7318453</v>
+      </c>
+      <c r="Q45">
+        <v>-26.3218453</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08997983526317493</v>
+      </c>
+      <c r="T45">
+        <v>1.520712320036201</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0.1837</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.03251374526709605</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1320235061000097</v>
+      </c>
+      <c r="C46">
+        <v>61.28168613836792</v>
+      </c>
+      <c r="D46">
+        <v>230.2336861383679</v>
+      </c>
+      <c r="E46">
+        <v>-192.248</v>
+      </c>
+      <c r="F46">
+        <v>188.452</v>
+      </c>
+      <c r="G46">
+        <v>19.5</v>
+      </c>
+      <c r="H46">
+        <v>47.6</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>7.51</v>
+      </c>
+      <c r="K46">
+        <v>6.41</v>
+      </c>
+      <c r="L46">
+        <v>1.1</v>
+      </c>
+      <c r="M46">
+        <v>34.6186324</v>
+      </c>
+      <c r="N46">
+        <v>-33.5186324</v>
+      </c>
+      <c r="O46">
+        <v>-0</v>
+      </c>
+      <c r="P46">
+        <v>-33.5186324</v>
+      </c>
+      <c r="Q46">
+        <v>-27.1086324</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.0914205466071602</v>
+      </c>
+      <c r="T46">
+        <v>1.547867897179705</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0.1837</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.03177479651102566</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1337675061000097</v>
+      </c>
+      <c r="C47">
+        <v>53.77272330512295</v>
+      </c>
+      <c r="D47">
+        <v>227.007723305123</v>
+      </c>
+      <c r="E47">
+        <v>-187.965</v>
+      </c>
+      <c r="F47">
+        <v>192.735</v>
+      </c>
+      <c r="G47">
+        <v>19.5</v>
+      </c>
+      <c r="H47">
+        <v>47.6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>7.51</v>
+      </c>
+      <c r="K47">
+        <v>6.41</v>
+      </c>
+      <c r="L47">
+        <v>1.1</v>
+      </c>
+      <c r="M47">
+        <v>35.4054195</v>
+      </c>
+      <c r="N47">
+        <v>-34.3054195</v>
+      </c>
+      <c r="O47">
+        <v>-0</v>
+      </c>
+      <c r="P47">
+        <v>-34.3054195</v>
+      </c>
+      <c r="Q47">
+        <v>-27.8954195</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09291364745456311</v>
+      </c>
+      <c r="T47">
+        <v>1.576010949855699</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0.1837</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.03106868992189182</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1355115061000097</v>
+      </c>
+      <c r="C48">
+        <v>46.35291366171037</v>
+      </c>
+      <c r="D48">
+        <v>223.8709136617104</v>
+      </c>
+      <c r="E48">
+        <v>-183.682</v>
+      </c>
+      <c r="F48">
+        <v>197.018</v>
+      </c>
+      <c r="G48">
+        <v>19.5</v>
+      </c>
+      <c r="H48">
+        <v>47.6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>7.51</v>
+      </c>
+      <c r="K48">
+        <v>6.41</v>
+      </c>
+      <c r="L48">
+        <v>1.1</v>
+      </c>
+      <c r="M48">
+        <v>36.1922066</v>
+      </c>
+      <c r="N48">
+        <v>-35.0922066</v>
+      </c>
+      <c r="O48">
+        <v>-0</v>
+      </c>
+      <c r="P48">
+        <v>-35.0922066</v>
+      </c>
+      <c r="Q48">
+        <v>-28.6822066</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09446204833335133</v>
+      </c>
+      <c r="T48">
+        <v>1.60519633781599</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0.1837</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.03039328361924198</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1372555061000097</v>
+      </c>
+      <c r="C49">
+        <v>39.01861180432203</v>
+      </c>
+      <c r="D49">
+        <v>220.8196118043221</v>
+      </c>
+      <c r="E49">
+        <v>-179.399</v>
+      </c>
+      <c r="F49">
+        <v>201.301</v>
+      </c>
+      <c r="G49">
+        <v>19.5</v>
+      </c>
+      <c r="H49">
+        <v>47.6</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>7.51</v>
+      </c>
+      <c r="K49">
+        <v>6.41</v>
+      </c>
+      <c r="L49">
+        <v>1.1</v>
+      </c>
+      <c r="M49">
+        <v>36.9789937</v>
+      </c>
+      <c r="N49">
+        <v>-35.8789937</v>
+      </c>
+      <c r="O49">
+        <v>-0</v>
+      </c>
+      <c r="P49">
+        <v>-35.8789937</v>
+      </c>
+      <c r="Q49">
+        <v>-29.4689937</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09606887943398058</v>
+      </c>
+      <c r="T49">
+        <v>1.635483061171009</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0.1837</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.02974661801032197</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1389995061000097</v>
+      </c>
+      <c r="C50">
+        <v>31.76636840034345</v>
+      </c>
+      <c r="D50">
+        <v>217.8503684003435</v>
+      </c>
+      <c r="E50">
+        <v>-175.116</v>
+      </c>
+      <c r="F50">
+        <v>205.584</v>
+      </c>
+      <c r="G50">
+        <v>19.5</v>
+      </c>
+      <c r="H50">
+        <v>47.6</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>7.51</v>
+      </c>
+      <c r="K50">
+        <v>6.41</v>
+      </c>
+      <c r="L50">
+        <v>1.1</v>
+      </c>
+      <c r="M50">
+        <v>37.7657808</v>
+      </c>
+      <c r="N50">
+        <v>-36.6657808</v>
+      </c>
+      <c r="O50">
+        <v>-0</v>
+      </c>
+      <c r="P50">
+        <v>-36.6657808</v>
+      </c>
+      <c r="Q50">
+        <v>-30.2557808</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.0977375117307879</v>
+      </c>
+      <c r="T50">
+        <v>1.66693465850122</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0.1837</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.02912689680177361</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1407435061000097</v>
+      </c>
+      <c r="C51">
+        <v>24.59291718093422</v>
+      </c>
+      <c r="D51">
+        <v>214.9599171809342</v>
+      </c>
+      <c r="E51">
+        <v>-170.833</v>
+      </c>
+      <c r="F51">
+        <v>209.867</v>
+      </c>
+      <c r="G51">
+        <v>19.5</v>
+      </c>
+      <c r="H51">
+        <v>47.6</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>7.51</v>
+      </c>
+      <c r="K51">
+        <v>6.41</v>
+      </c>
+      <c r="L51">
+        <v>1.1</v>
+      </c>
+      <c r="M51">
+        <v>38.5525679</v>
+      </c>
+      <c r="N51">
+        <v>-37.4525679</v>
+      </c>
+      <c r="O51">
+        <v>-0</v>
+      </c>
+      <c r="P51">
+        <v>-37.4525679</v>
+      </c>
+      <c r="Q51">
+        <v>-31.0425679</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09947158058825434</v>
+      </c>
+      <c r="T51">
+        <v>1.699619651805166</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0.1837</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.02853247033643125</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1424875061000097</v>
+      </c>
+      <c r="C52">
+        <v>17.49516295554881</v>
+      </c>
+      <c r="D52">
+        <v>212.1451629555488</v>
+      </c>
+      <c r="E52">
+        <v>-166.55</v>
+      </c>
+      <c r="F52">
+        <v>214.15</v>
+      </c>
+      <c r="G52">
+        <v>19.5</v>
+      </c>
+      <c r="H52">
+        <v>47.6</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>7.51</v>
+      </c>
+      <c r="K52">
+        <v>6.41</v>
+      </c>
+      <c r="L52">
+        <v>1.1</v>
+      </c>
+      <c r="M52">
+        <v>39.339355</v>
+      </c>
+      <c r="N52">
+        <v>-38.239355</v>
+      </c>
+      <c r="O52">
+        <v>-0</v>
+      </c>
+      <c r="P52">
+        <v>-38.239355</v>
+      </c>
+      <c r="Q52">
+        <v>-31.829355</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1012750122000194</v>
+      </c>
+      <c r="T52">
+        <v>1.733612044841269</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0.1837</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.02796182092970256</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1442315061000097</v>
+      </c>
+      <c r="C53">
+        <v>10.47017055593642</v>
+      </c>
+      <c r="D53">
+        <v>209.4031705559364</v>
+      </c>
+      <c r="E53">
+        <v>-162.267</v>
+      </c>
+      <c r="F53">
+        <v>218.433</v>
+      </c>
+      <c r="G53">
+        <v>19.5</v>
+      </c>
+      <c r="H53">
+        <v>47.6</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>7.51</v>
+      </c>
+      <c r="K53">
+        <v>6.41</v>
+      </c>
+      <c r="L53">
+        <v>1.1</v>
+      </c>
+      <c r="M53">
+        <v>40.1261421</v>
+      </c>
+      <c r="N53">
+        <v>-39.0261421</v>
+      </c>
+      <c r="O53">
+        <v>-0</v>
+      </c>
+      <c r="P53">
+        <v>-39.0261421</v>
+      </c>
+      <c r="Q53">
+        <v>-32.6161421</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1031520532653259</v>
+      </c>
+      <c r="T53">
+        <v>1.768991882491091</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0.1837</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.02741354993108103</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1459755061000097</v>
+      </c>
+      <c r="C54">
+        <v>3.515154626598473</v>
+      </c>
+      <c r="D54">
+        <v>206.7311546265985</v>
+      </c>
+      <c r="E54">
+        <v>-157.984</v>
+      </c>
+      <c r="F54">
+        <v>222.716</v>
+      </c>
+      <c r="G54">
+        <v>19.5</v>
+      </c>
+      <c r="H54">
+        <v>47.6</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>7.51</v>
+      </c>
+      <c r="K54">
+        <v>6.41</v>
+      </c>
+      <c r="L54">
+        <v>1.1</v>
+      </c>
+      <c r="M54">
+        <v>40.9129292</v>
+      </c>
+      <c r="N54">
+        <v>-39.8129292</v>
+      </c>
+      <c r="O54">
+        <v>-0</v>
+      </c>
+      <c r="P54">
+        <v>-39.8129292</v>
+      </c>
+      <c r="Q54">
+        <v>-33.4029292</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1051073043750202</v>
+      </c>
+      <c r="T54">
+        <v>1.805845880042989</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0.1837</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.02688636627856023</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1477195061000097</v>
+      </c>
+      <c r="C55">
+        <v>-3.37252981295083</v>
+      </c>
+      <c r="D55">
+        <v>204.1264701870492</v>
+      </c>
+      <c r="E55">
+        <v>-153.701</v>
+      </c>
+      <c r="F55">
+        <v>226.999</v>
+      </c>
+      <c r="G55">
+        <v>19.5</v>
+      </c>
+      <c r="H55">
+        <v>47.6</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>7.51</v>
+      </c>
+      <c r="K55">
+        <v>6.41</v>
+      </c>
+      <c r="L55">
+        <v>1.1</v>
+      </c>
+      <c r="M55">
+        <v>41.69971630000001</v>
+      </c>
+      <c r="N55">
+        <v>-40.5997163</v>
+      </c>
+      <c r="O55">
+        <v>-0</v>
+      </c>
+      <c r="P55">
+        <v>-40.5997163</v>
+      </c>
+      <c r="Q55">
+        <v>-34.1897163</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1071457576595951</v>
+      </c>
+      <c r="T55">
+        <v>1.844268132809861</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0.1837</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.02637907634877601</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1494635061000097</v>
+      </c>
+      <c r="C56">
+        <v>-10.1953961013426</v>
+      </c>
+      <c r="D56">
+        <v>201.5866038986574</v>
+      </c>
+      <c r="E56">
+        <v>-149.418</v>
+      </c>
+      <c r="F56">
+        <v>231.282</v>
+      </c>
+      <c r="G56">
+        <v>19.5</v>
+      </c>
+      <c r="H56">
+        <v>47.6</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>7.51</v>
+      </c>
+      <c r="K56">
+        <v>6.41</v>
+      </c>
+      <c r="L56">
+        <v>1.1</v>
+      </c>
+      <c r="M56">
+        <v>42.4865034</v>
+      </c>
+      <c r="N56">
+        <v>-41.3865034</v>
+      </c>
+      <c r="O56">
+        <v>-0</v>
+      </c>
+      <c r="P56">
+        <v>-41.3865034</v>
+      </c>
+      <c r="Q56">
+        <v>-34.9765034</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1092728393478472</v>
+      </c>
+      <c r="T56">
+        <v>1.884360918305727</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0.1837</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.02589057493490987</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1512075061000097</v>
+      </c>
+      <c r="C57">
+        <v>-16.95583402454514</v>
+      </c>
+      <c r="D57">
+        <v>199.1091659754549</v>
+      </c>
+      <c r="E57">
+        <v>-145.135</v>
+      </c>
+      <c r="F57">
+        <v>235.565</v>
+      </c>
+      <c r="G57">
+        <v>19.5</v>
+      </c>
+      <c r="H57">
+        <v>47.6</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>7.51</v>
+      </c>
+      <c r="K57">
+        <v>6.41</v>
+      </c>
+      <c r="L57">
+        <v>1.1</v>
+      </c>
+      <c r="M57">
+        <v>43.27329050000001</v>
+      </c>
+      <c r="N57">
+        <v>-42.17329050000001</v>
+      </c>
+      <c r="O57">
+        <v>-0</v>
+      </c>
+      <c r="P57">
+        <v>-42.17329050000001</v>
+      </c>
+      <c r="Q57">
+        <v>-35.76329050000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1114944580000216</v>
+      </c>
+      <c r="T57">
+        <v>1.926235605379188</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0.1837</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.02541983720882057</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1529515061000097</v>
+      </c>
+      <c r="C58">
+        <v>-23.65611731581424</v>
+      </c>
+      <c r="D58">
+        <v>196.6918826841858</v>
+      </c>
+      <c r="E58">
+        <v>-140.8519999999999</v>
+      </c>
+      <c r="F58">
+        <v>239.848</v>
+      </c>
+      <c r="G58">
+        <v>19.5</v>
+      </c>
+      <c r="H58">
+        <v>47.6</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>7.51</v>
+      </c>
+      <c r="K58">
+        <v>6.41</v>
+      </c>
+      <c r="L58">
+        <v>1.1</v>
+      </c>
+      <c r="M58">
+        <v>44.06007760000001</v>
+      </c>
+      <c r="N58">
+        <v>-42.96007760000001</v>
+      </c>
+      <c r="O58">
+        <v>-0</v>
+      </c>
+      <c r="P58">
+        <v>-42.96007760000001</v>
+      </c>
+      <c r="Q58">
+        <v>-36.55007760000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1138170593182039</v>
+      </c>
+      <c r="T58">
+        <v>1.970013687319624</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0.1837</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.02496591154437733</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1546955061000097</v>
+      </c>
+      <c r="C59">
+        <v>-30.29841061587862</v>
+      </c>
+      <c r="D59">
+        <v>194.3325893841214</v>
+      </c>
+      <c r="E59">
+        <v>-136.569</v>
+      </c>
+      <c r="F59">
+        <v>244.131</v>
+      </c>
+      <c r="G59">
+        <v>19.5</v>
+      </c>
+      <c r="H59">
+        <v>47.6</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>7.51</v>
+      </c>
+      <c r="K59">
+        <v>6.41</v>
+      </c>
+      <c r="L59">
+        <v>1.1</v>
+      </c>
+      <c r="M59">
+        <v>44.8468647</v>
+      </c>
+      <c r="N59">
+        <v>-43.7468647</v>
+      </c>
+      <c r="O59">
+        <v>-0</v>
+      </c>
+      <c r="P59">
+        <v>-43.7468647</v>
+      </c>
+      <c r="Q59">
+        <v>-37.33686470000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1162476886046738</v>
+      </c>
+      <c r="T59">
+        <v>2.015827959117756</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0.1837</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.02452791309623037</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1564395061000097</v>
+      </c>
+      <c r="C60">
+        <v>-36.88477593814318</v>
+      </c>
+      <c r="D60">
+        <v>192.0292240618568</v>
+      </c>
+      <c r="E60">
+        <v>-132.286</v>
+      </c>
+      <c r="F60">
+        <v>248.414</v>
+      </c>
+      <c r="G60">
+        <v>19.5</v>
+      </c>
+      <c r="H60">
+        <v>47.6</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>7.51</v>
+      </c>
+      <c r="K60">
+        <v>6.41</v>
+      </c>
+      <c r="L60">
+        <v>1.1</v>
+      </c>
+      <c r="M60">
+        <v>45.6336518</v>
+      </c>
+      <c r="N60">
+        <v>-44.53365179999999</v>
+      </c>
+      <c r="O60">
+        <v>-0</v>
+      </c>
+      <c r="P60">
+        <v>-44.53365179999999</v>
+      </c>
+      <c r="Q60">
+        <v>-38.12365179999999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1187940621428802</v>
+      </c>
+      <c r="T60">
+        <v>2.063823862906272</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0.1837</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.02410501804284704</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1581835061000097</v>
+      </c>
+      <c r="C61">
+        <v>-43.41717867949797</v>
+      </c>
+      <c r="D61">
+        <v>189.779821320502</v>
+      </c>
+      <c r="E61">
+        <v>-128.003</v>
+      </c>
+      <c r="F61">
+        <v>252.697</v>
+      </c>
+      <c r="G61">
+        <v>19.5</v>
+      </c>
+      <c r="H61">
+        <v>47.6</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>7.51</v>
+      </c>
+      <c r="K61">
+        <v>6.41</v>
+      </c>
+      <c r="L61">
+        <v>1.1</v>
+      </c>
+      <c r="M61">
+        <v>46.4204389</v>
+      </c>
+      <c r="N61">
+        <v>-45.3204389</v>
+      </c>
+      <c r="O61">
+        <v>-0</v>
+      </c>
+      <c r="P61">
+        <v>-45.3204389</v>
+      </c>
+      <c r="Q61">
+        <v>-38.9104389</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1214646490244139</v>
+      </c>
+      <c r="T61">
+        <v>2.11416103029423</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0.1837</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.02369645841500223</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1599275061000097</v>
+      </c>
+      <c r="C62">
+        <v>-49.8974932135593</v>
+      </c>
+      <c r="D62">
+        <v>187.5825067864407</v>
+      </c>
+      <c r="E62">
+        <v>-123.72</v>
+      </c>
+      <c r="F62">
+        <v>256.98</v>
+      </c>
+      <c r="G62">
+        <v>19.5</v>
+      </c>
+      <c r="H62">
+        <v>47.6</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>7.51</v>
+      </c>
+      <c r="K62">
+        <v>6.41</v>
+      </c>
+      <c r="L62">
+        <v>1.1</v>
+      </c>
+      <c r="M62">
+        <v>47.20722600000001</v>
+      </c>
+      <c r="N62">
+        <v>-46.107226</v>
+      </c>
+      <c r="O62">
+        <v>-0</v>
+      </c>
+      <c r="P62">
+        <v>-46.107226</v>
+      </c>
+      <c r="Q62">
+        <v>-39.697226</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1242687652500243</v>
+      </c>
+      <c r="T62">
+        <v>2.167015056051587</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0.1837</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.02330151744141884</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1616715061000097</v>
+      </c>
+      <c r="C63">
+        <v>-56.32750809979942</v>
+      </c>
+      <c r="D63">
+        <v>185.4354919002006</v>
+      </c>
+      <c r="E63">
+        <v>-119.437</v>
+      </c>
+      <c r="F63">
+        <v>261.263</v>
+      </c>
+      <c r="G63">
+        <v>19.5</v>
+      </c>
+      <c r="H63">
+        <v>47.6</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>7.51</v>
+      </c>
+      <c r="K63">
+        <v>6.41</v>
+      </c>
+      <c r="L63">
+        <v>1.1</v>
+      </c>
+      <c r="M63">
+        <v>47.9940131</v>
+      </c>
+      <c r="N63">
+        <v>-46.8940131</v>
+      </c>
+      <c r="O63">
+        <v>-0</v>
+      </c>
+      <c r="P63">
+        <v>-46.8940131</v>
+      </c>
+      <c r="Q63">
+        <v>-40.4840131</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1272166823077172</v>
+      </c>
+      <c r="T63">
+        <v>2.222579544668294</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0.1837</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.02291952535221531</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1634155061000097</v>
+      </c>
+      <c r="C64">
+        <v>-62.70893093899181</v>
+      </c>
+      <c r="D64">
+        <v>183.3370690610082</v>
+      </c>
+      <c r="E64">
+        <v>-115.154</v>
+      </c>
+      <c r="F64">
+        <v>265.546</v>
+      </c>
+      <c r="G64">
+        <v>19.5</v>
+      </c>
+      <c r="H64">
+        <v>47.6</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>7.51</v>
+      </c>
+      <c r="K64">
+        <v>6.41</v>
+      </c>
+      <c r="L64">
+        <v>1.1</v>
+      </c>
+      <c r="M64">
+        <v>48.7808002</v>
+      </c>
+      <c r="N64">
+        <v>-47.6808002</v>
+      </c>
+      <c r="O64">
+        <v>-0</v>
+      </c>
+      <c r="P64">
+        <v>-47.6808002</v>
+      </c>
+      <c r="Q64">
+        <v>-41.2708002</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1303197528947624</v>
+      </c>
+      <c r="T64">
+        <v>2.281068480054302</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0.1837</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.02254985558846989</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1651595061000097</v>
+      </c>
+      <c r="C65">
+        <v>-69.04339290267359</v>
+      </c>
+      <c r="D65">
+        <v>181.2856070973264</v>
+      </c>
+      <c r="E65">
+        <v>-110.871</v>
+      </c>
+      <c r="F65">
+        <v>269.829</v>
+      </c>
+      <c r="G65">
+        <v>19.5</v>
+      </c>
+      <c r="H65">
+        <v>47.6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>7.51</v>
+      </c>
+      <c r="K65">
+        <v>6.41</v>
+      </c>
+      <c r="L65">
+        <v>1.1</v>
+      </c>
+      <c r="M65">
+        <v>49.5675873</v>
+      </c>
+      <c r="N65">
+        <v>-48.4675873</v>
+      </c>
+      <c r="O65">
+        <v>-0</v>
+      </c>
+      <c r="P65">
+        <v>-48.4675873</v>
+      </c>
+      <c r="Q65">
+        <v>-42.05758729999999</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1335905570270532</v>
+      </c>
+      <c r="T65">
+        <v>2.342718979515229</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0.1837</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.02219192137277981</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1669035061000097</v>
+      </c>
+      <c r="C66">
+        <v>-75.33245296187755</v>
+      </c>
+      <c r="D66">
+        <v>179.2795470381225</v>
+      </c>
+      <c r="E66">
+        <v>-106.588</v>
+      </c>
+      <c r="F66">
+        <v>274.112</v>
+      </c>
+      <c r="G66">
+        <v>19.5</v>
+      </c>
+      <c r="H66">
+        <v>47.6</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>7.51</v>
+      </c>
+      <c r="K66">
+        <v>6.41</v>
+      </c>
+      <c r="L66">
+        <v>1.1</v>
+      </c>
+      <c r="M66">
+        <v>50.3543744</v>
+      </c>
+      <c r="N66">
+        <v>-49.2543744</v>
+      </c>
+      <c r="O66">
+        <v>-0</v>
+      </c>
+      <c r="P66">
+        <v>-49.2543744</v>
+      </c>
+      <c r="Q66">
+        <v>-42.84437440000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.137043072500027</v>
+      </c>
+      <c r="T66">
+        <v>2.407794506723985</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0.1837</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.02184517260133012</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1686475061000097</v>
+      </c>
+      <c r="C67">
+        <v>-81.57760183817226</v>
+      </c>
+      <c r="D67">
+        <v>177.3173981618278</v>
+      </c>
+      <c r="E67">
+        <v>-102.3049999999999</v>
+      </c>
+      <c r="F67">
+        <v>278.395</v>
+      </c>
+      <c r="G67">
+        <v>19.5</v>
+      </c>
+      <c r="H67">
+        <v>47.6</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>7.51</v>
+      </c>
+      <c r="K67">
+        <v>6.41</v>
+      </c>
+      <c r="L67">
+        <v>1.1</v>
+      </c>
+      <c r="M67">
+        <v>51.14116150000001</v>
+      </c>
+      <c r="N67">
+        <v>-50.04116150000001</v>
+      </c>
+      <c r="O67">
+        <v>-0</v>
+      </c>
+      <c r="P67">
+        <v>-50.04116150000001</v>
+      </c>
+      <c r="Q67">
+        <v>-43.6311615</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1406928745714564</v>
+      </c>
+      <c r="T67">
+        <v>2.476588635487528</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0.1837</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.0215090930228482</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1703915061000097</v>
+      </c>
+      <c r="C68">
+        <v>-87.78026569805468</v>
+      </c>
+      <c r="D68">
+        <v>175.3977343019453</v>
+      </c>
+      <c r="E68">
+        <v>-98.02199999999999</v>
+      </c>
+      <c r="F68">
+        <v>282.678</v>
+      </c>
+      <c r="G68">
+        <v>19.5</v>
+      </c>
+      <c r="H68">
+        <v>47.6</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>7.51</v>
+      </c>
+      <c r="K68">
+        <v>6.41</v>
+      </c>
+      <c r="L68">
+        <v>1.1</v>
+      </c>
+      <c r="M68">
+        <v>51.9279486</v>
+      </c>
+      <c r="N68">
+        <v>-50.8279486</v>
+      </c>
+      <c r="O68">
+        <v>-0</v>
+      </c>
+      <c r="P68">
+        <v>-50.8279486</v>
+      </c>
+      <c r="Q68">
+        <v>-44.4179486</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1445573708823815</v>
+      </c>
+      <c r="T68">
+        <v>2.549429477707749</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0.1837</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.02118319767401711</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1721355061000097</v>
+      </c>
+      <c r="C69">
+        <v>-93.94180960993788</v>
+      </c>
+      <c r="D69">
+        <v>173.5191903900621</v>
+      </c>
+      <c r="E69">
+        <v>-93.73899999999998</v>
+      </c>
+      <c r="F69">
+        <v>286.961</v>
+      </c>
+      <c r="G69">
+        <v>19.5</v>
+      </c>
+      <c r="H69">
+        <v>47.6</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>7.51</v>
+      </c>
+      <c r="K69">
+        <v>6.41</v>
+      </c>
+      <c r="L69">
+        <v>1.1</v>
+      </c>
+      <c r="M69">
+        <v>52.71473570000001</v>
+      </c>
+      <c r="N69">
+        <v>-51.6147357</v>
+      </c>
+      <c r="O69">
+        <v>-0</v>
+      </c>
+      <c r="P69">
+        <v>-51.6147357</v>
+      </c>
+      <c r="Q69">
+        <v>-45.2047357</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1486560790909386</v>
+      </c>
+      <c r="T69">
+        <v>2.626684916426166</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0.1837</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.02086703054455419</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1738795061000097</v>
+      </c>
+      <c r="C70">
+        <v>-100.0635407813413</v>
+      </c>
+      <c r="D70">
+        <v>171.6804592186587</v>
+      </c>
+      <c r="E70">
+        <v>-89.45599999999996</v>
+      </c>
+      <c r="F70">
+        <v>291.244</v>
+      </c>
+      <c r="G70">
+        <v>19.5</v>
+      </c>
+      <c r="H70">
+        <v>47.6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>7.51</v>
+      </c>
+      <c r="K70">
+        <v>6.41</v>
+      </c>
+      <c r="L70">
+        <v>1.1</v>
+      </c>
+      <c r="M70">
+        <v>53.5015228</v>
+      </c>
+      <c r="N70">
+        <v>-52.4015228</v>
+      </c>
+      <c r="O70">
+        <v>-0</v>
+      </c>
+      <c r="P70">
+        <v>-52.4015228</v>
+      </c>
+      <c r="Q70">
+        <v>-45.9915228</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1530109565625304</v>
+      </c>
+      <c r="T70">
+        <v>2.708768820064483</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0.1837</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.02056016244831071</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1756235061000097</v>
+      </c>
+      <c r="C71">
+        <v>-106.146711592419</v>
+      </c>
+      <c r="D71">
+        <v>169.880288407581</v>
+      </c>
+      <c r="E71">
+        <v>-85.17299999999994</v>
+      </c>
+      <c r="F71">
+        <v>295.527</v>
+      </c>
+      <c r="G71">
+        <v>19.5</v>
+      </c>
+      <c r="H71">
+        <v>47.6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>7.51</v>
+      </c>
+      <c r="K71">
+        <v>6.41</v>
+      </c>
+      <c r="L71">
+        <v>1.1</v>
+      </c>
+      <c r="M71">
+        <v>54.28830990000001</v>
+      </c>
+      <c r="N71">
+        <v>-53.18830990000001</v>
+      </c>
+      <c r="O71">
+        <v>-0</v>
+      </c>
+      <c r="P71">
+        <v>-53.18830990000001</v>
+      </c>
+      <c r="Q71">
+        <v>-46.77830990000001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1576467938709991</v>
+      </c>
+      <c r="T71">
+        <v>2.796148459421403</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0.1837</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.02026218907949462</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1773675061000097</v>
+      </c>
+      <c r="C72">
+        <v>-112.1925224406179</v>
+      </c>
+      <c r="D72">
+        <v>168.1174775593822</v>
+      </c>
+      <c r="E72">
+        <v>-80.88999999999993</v>
+      </c>
+      <c r="F72">
+        <v>299.8100000000001</v>
+      </c>
+      <c r="G72">
+        <v>19.5</v>
+      </c>
+      <c r="H72">
+        <v>47.6</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>7.51</v>
+      </c>
+      <c r="K72">
+        <v>6.41</v>
+      </c>
+      <c r="L72">
+        <v>1.1</v>
+      </c>
+      <c r="M72">
+        <v>55.07509700000001</v>
+      </c>
+      <c r="N72">
+        <v>-53.97509700000001</v>
+      </c>
+      <c r="O72">
+        <v>-0</v>
+      </c>
+      <c r="P72">
+        <v>-53.97509700000001</v>
+      </c>
+      <c r="Q72">
+        <v>-47.56509700000001</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1625916870000324</v>
+      </c>
+      <c r="T72">
+        <v>2.889353408068783</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0.1837</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.01997272923550186</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1791115061000097</v>
+      </c>
+      <c r="C73">
+        <v>-118.2021244100443</v>
+      </c>
+      <c r="D73">
+        <v>166.3908755899557</v>
+      </c>
+      <c r="E73">
+        <v>-76.60699999999997</v>
+      </c>
+      <c r="F73">
+        <v>304.093</v>
+      </c>
+      <c r="G73">
+        <v>19.5</v>
+      </c>
+      <c r="H73">
+        <v>47.6</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>7.51</v>
+      </c>
+      <c r="K73">
+        <v>6.41</v>
+      </c>
+      <c r="L73">
+        <v>1.1</v>
+      </c>
+      <c r="M73">
+        <v>55.8618841</v>
+      </c>
+      <c r="N73">
+        <v>-54.7618841</v>
+      </c>
+      <c r="O73">
+        <v>-0</v>
+      </c>
+      <c r="P73">
+        <v>-54.7618841</v>
+      </c>
+      <c r="Q73">
+        <v>-48.35188410000001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1678776072414128</v>
+      </c>
+      <c r="T73">
+        <v>2.988986284209085</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0.1837</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.01969142318993145</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1808555061000097</v>
+      </c>
+      <c r="C74">
+        <v>-124.1766217780141</v>
+      </c>
+      <c r="D74">
+        <v>164.6993782219859</v>
+      </c>
+      <c r="E74">
+        <v>-72.32400000000001</v>
+      </c>
+      <c r="F74">
+        <v>308.376</v>
+      </c>
+      <c r="G74">
+        <v>19.5</v>
+      </c>
+      <c r="H74">
+        <v>47.6</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>7.51</v>
+      </c>
+      <c r="K74">
+        <v>6.41</v>
+      </c>
+      <c r="L74">
+        <v>1.1</v>
+      </c>
+      <c r="M74">
+        <v>56.6486712</v>
+      </c>
+      <c r="N74">
+        <v>-55.54867119999999</v>
+      </c>
+      <c r="O74">
+        <v>-0</v>
+      </c>
+      <c r="P74">
+        <v>-55.54867119999999</v>
+      </c>
+      <c r="Q74">
+        <v>-49.13867119999999</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1735410932143204</v>
+      </c>
+      <c r="T74">
+        <v>3.095735794359409</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0.1837</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.0194179312011824</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1825995061000097</v>
+      </c>
+      <c r="C75">
+        <v>-130.1170743702527</v>
+      </c>
+      <c r="D75">
+        <v>163.0419256297473</v>
+      </c>
+      <c r="E75">
+        <v>-68.041</v>
+      </c>
+      <c r="F75">
+        <v>312.659</v>
+      </c>
+      <c r="G75">
+        <v>19.5</v>
+      </c>
+      <c r="H75">
+        <v>47.6</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>7.51</v>
+      </c>
+      <c r="K75">
+        <v>6.41</v>
+      </c>
+      <c r="L75">
+        <v>1.1</v>
+      </c>
+      <c r="M75">
+        <v>57.4354583</v>
+      </c>
+      <c r="N75">
+        <v>-56.3354583</v>
+      </c>
+      <c r="O75">
+        <v>-0</v>
+      </c>
+      <c r="P75">
+        <v>-56.3354583</v>
+      </c>
+      <c r="Q75">
+        <v>-49.9254583</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1796240966667026</v>
+      </c>
+      <c r="T75">
+        <v>3.21039267563198</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0.1837</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.01915193214363198</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1843435061000097</v>
+      </c>
+      <c r="C76">
+        <v>-136.0244997753051</v>
+      </c>
+      <c r="D76">
+        <v>161.4175002246949</v>
+      </c>
+      <c r="E76">
+        <v>-63.75799999999998</v>
+      </c>
+      <c r="F76">
+        <v>316.942</v>
+      </c>
+      <c r="G76">
+        <v>19.5</v>
+      </c>
+      <c r="H76">
+        <v>47.6</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>7.51</v>
+      </c>
+      <c r="K76">
+        <v>6.41</v>
+      </c>
+      <c r="L76">
+        <v>1.1</v>
+      </c>
+      <c r="M76">
+        <v>58.2222454</v>
+      </c>
+      <c r="N76">
+        <v>-57.1222454</v>
+      </c>
+      <c r="O76">
+        <v>-0</v>
+      </c>
+      <c r="P76">
+        <v>-57.1222454</v>
+      </c>
+      <c r="Q76">
+        <v>-50.7122454</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1861750234615758</v>
+      </c>
+      <c r="T76">
+        <v>3.333869317002441</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0.1837</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.01889312224979911</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1860875061000097</v>
+      </c>
+      <c r="C77">
+        <v>-141.8998754278731</v>
+      </c>
+      <c r="D77">
+        <v>159.825124572127</v>
+      </c>
+      <c r="E77">
+        <v>-59.47499999999997</v>
+      </c>
+      <c r="F77">
+        <v>321.225</v>
+      </c>
+      <c r="G77">
+        <v>19.5</v>
+      </c>
+      <c r="H77">
+        <v>47.6</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>7.51</v>
+      </c>
+      <c r="K77">
+        <v>6.41</v>
+      </c>
+      <c r="L77">
+        <v>1.1</v>
+      </c>
+      <c r="M77">
+        <v>59.0090325</v>
+      </c>
+      <c r="N77">
+        <v>-57.9090325</v>
+      </c>
+      <c r="O77">
+        <v>-0</v>
+      </c>
+      <c r="P77">
+        <v>-57.9090325</v>
+      </c>
+      <c r="Q77">
+        <v>-51.4990325</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1932500244000389</v>
+      </c>
+      <c r="T77">
+        <v>3.467224089682539</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0.1837</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.01864121395313512</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1878315061000097</v>
+      </c>
+      <c r="C78">
+        <v>-147.7441405700472</v>
+      </c>
+      <c r="D78">
+        <v>158.2638594299529</v>
+      </c>
+      <c r="E78">
+        <v>-55.19199999999995</v>
+      </c>
+      <c r="F78">
+        <v>325.508</v>
+      </c>
+      <c r="G78">
+        <v>19.5</v>
+      </c>
+      <c r="H78">
+        <v>47.6</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>7.51</v>
+      </c>
+      <c r="K78">
+        <v>6.41</v>
+      </c>
+      <c r="L78">
+        <v>1.1</v>
+      </c>
+      <c r="M78">
+        <v>59.79581960000001</v>
+      </c>
+      <c r="N78">
+        <v>-58.69581960000001</v>
+      </c>
+      <c r="O78">
+        <v>-0</v>
+      </c>
+      <c r="P78">
+        <v>-58.69581960000001</v>
+      </c>
+      <c r="Q78">
+        <v>-52.28581960000001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2009146087500405</v>
+      </c>
+      <c r="T78">
+        <v>3.611691760085978</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0.1837</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.01839593482217272</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1895755061000097</v>
+      </c>
+      <c r="C79">
+        <v>-153.5581980986984</v>
+      </c>
+      <c r="D79">
+        <v>156.7328019013016</v>
+      </c>
+      <c r="E79">
+        <v>-50.90899999999999</v>
+      </c>
+      <c r="F79">
+        <v>329.791</v>
+      </c>
+      <c r="G79">
+        <v>19.5</v>
+      </c>
+      <c r="H79">
+        <v>47.6</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>7.51</v>
+      </c>
+      <c r="K79">
+        <v>6.41</v>
+      </c>
+      <c r="L79">
+        <v>1.1</v>
+      </c>
+      <c r="M79">
+        <v>60.5826067</v>
+      </c>
+      <c r="N79">
+        <v>-59.4826067</v>
+      </c>
+      <c r="O79">
+        <v>-0</v>
+      </c>
+      <c r="P79">
+        <v>-59.4826067</v>
+      </c>
+      <c r="Q79">
+        <v>-53.07260669999999</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2092456786956944</v>
+      </c>
+      <c r="T79">
+        <v>3.768721836611455</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0.1837</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.018157026577729</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1913195061000097</v>
+      </c>
+      <c r="C80">
+        <v>-159.3429163066672</v>
+      </c>
+      <c r="D80">
+        <v>155.2310836933328</v>
+      </c>
+      <c r="E80">
+        <v>-46.62599999999998</v>
+      </c>
+      <c r="F80">
+        <v>334.074</v>
+      </c>
+      <c r="G80">
+        <v>19.5</v>
+      </c>
+      <c r="H80">
+        <v>47.6</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>7.51</v>
+      </c>
+      <c r="K80">
+        <v>6.41</v>
+      </c>
+      <c r="L80">
+        <v>1.1</v>
+      </c>
+      <c r="M80">
+        <v>61.3693938</v>
+      </c>
+      <c r="N80">
+        <v>-60.2693938</v>
+      </c>
+      <c r="O80">
+        <v>-0</v>
+      </c>
+      <c r="P80">
+        <v>-60.2693938</v>
+      </c>
+      <c r="Q80">
+        <v>-53.85939380000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2183341186364078</v>
+      </c>
+      <c r="T80">
+        <v>3.940027374639249</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0.1837</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.01792424418570682</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1930635061000097</v>
+      </c>
+      <c r="C81">
+        <v>-165.0991305248039</v>
+      </c>
+      <c r="D81">
+        <v>153.7578694751962</v>
+      </c>
+      <c r="E81">
+        <v>-42.34299999999996</v>
+      </c>
+      <c r="F81">
+        <v>338.357</v>
+      </c>
+      <c r="G81">
+        <v>19.5</v>
+      </c>
+      <c r="H81">
+        <v>47.6</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>7.51</v>
+      </c>
+      <c r="K81">
+        <v>6.41</v>
+      </c>
+      <c r="L81">
+        <v>1.1</v>
+      </c>
+      <c r="M81">
+        <v>62.1561809</v>
+      </c>
+      <c r="N81">
+        <v>-61.0561809</v>
+      </c>
+      <c r="O81">
+        <v>-0</v>
+      </c>
+      <c r="P81">
+        <v>-61.0561809</v>
+      </c>
+      <c r="Q81">
+        <v>-54.6461809</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2282881242857606</v>
+      </c>
+      <c r="T81">
+        <v>4.127647725812547</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0.1837</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.0176973550187991</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1948075061000097</v>
+      </c>
+      <c r="C82">
+        <v>-170.827644671386</v>
+      </c>
+      <c r="D82">
+        <v>152.312355328614</v>
+      </c>
+      <c r="E82">
+        <v>-38.05999999999995</v>
+      </c>
+      <c r="F82">
+        <v>342.64</v>
+      </c>
+      <c r="G82">
+        <v>19.5</v>
+      </c>
+      <c r="H82">
+        <v>47.6</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>7.51</v>
+      </c>
+      <c r="K82">
+        <v>6.41</v>
+      </c>
+      <c r="L82">
+        <v>1.1</v>
+      </c>
+      <c r="M82">
+        <v>62.94296800000001</v>
+      </c>
+      <c r="N82">
+        <v>-61.84296800000001</v>
+      </c>
+      <c r="O82">
+        <v>-0</v>
+      </c>
+      <c r="P82">
+        <v>-61.84296800000001</v>
+      </c>
+      <c r="Q82">
+        <v>-55.432968</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2392375305000486</v>
+      </c>
+      <c r="T82">
+        <v>4.334030112103174</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0.1837</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.01747613808106419</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1965515061000097</v>
+      </c>
+      <c r="C83">
+        <v>-176.5292327149515</v>
+      </c>
+      <c r="D83">
+        <v>150.8937672850485</v>
+      </c>
+      <c r="E83">
+        <v>-33.77699999999993</v>
+      </c>
+      <c r="F83">
+        <v>346.9230000000001</v>
+      </c>
+      <c r="G83">
+        <v>19.5</v>
+      </c>
+      <c r="H83">
+        <v>47.6</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>7.51</v>
+      </c>
+      <c r="K83">
+        <v>6.41</v>
+      </c>
+      <c r="L83">
+        <v>1.1</v>
+      </c>
+      <c r="M83">
+        <v>63.72975510000001</v>
+      </c>
+      <c r="N83">
+        <v>-62.62975510000001</v>
+      </c>
+      <c r="O83">
+        <v>-0</v>
+      </c>
+      <c r="P83">
+        <v>-62.62975510000001</v>
+      </c>
+      <c r="Q83">
+        <v>-56.21975510000001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2513395057895249</v>
+      </c>
+      <c r="T83">
+        <v>4.562136960108605</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0.1837</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.01726038328993984</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1982955061000097</v>
+      </c>
+      <c r="C84">
+        <v>-182.2046400561391</v>
+      </c>
+      <c r="D84">
+        <v>149.5013599438609</v>
+      </c>
+      <c r="E84">
+        <v>-29.49399999999997</v>
+      </c>
+      <c r="F84">
+        <v>351.206</v>
+      </c>
+      <c r="G84">
+        <v>19.5</v>
+      </c>
+      <c r="H84">
+        <v>47.6</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>7.51</v>
+      </c>
+      <c r="K84">
+        <v>6.41</v>
+      </c>
+      <c r="L84">
+        <v>1.1</v>
+      </c>
+      <c r="M84">
+        <v>64.5165422</v>
+      </c>
+      <c r="N84">
+        <v>-63.4165422</v>
+      </c>
+      <c r="O84">
+        <v>-0</v>
+      </c>
+      <c r="P84">
+        <v>-63.4165422</v>
+      </c>
+      <c r="Q84">
+        <v>-57.0065422</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.264786145000054</v>
+      </c>
+      <c r="T84">
+        <v>4.815589013447972</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0.1837</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.01704989081079433</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2000395061000097</v>
+      </c>
+      <c r="C85">
+        <v>-187.8545848337217</v>
+      </c>
+      <c r="D85">
+        <v>148.1344151662783</v>
+      </c>
+      <c r="E85">
+        <v>-25.21099999999996</v>
+      </c>
+      <c r="F85">
+        <v>355.489</v>
+      </c>
+      <c r="G85">
+        <v>19.5</v>
+      </c>
+      <c r="H85">
+        <v>47.6</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>7.51</v>
+      </c>
+      <c r="K85">
+        <v>6.41</v>
+      </c>
+      <c r="L85">
+        <v>1.1</v>
+      </c>
+      <c r="M85">
+        <v>65.3033293</v>
+      </c>
+      <c r="N85">
+        <v>-64.20332930000001</v>
+      </c>
+      <c r="O85">
+        <v>-0</v>
+      </c>
+      <c r="P85">
+        <v>-64.20332930000001</v>
+      </c>
+      <c r="Q85">
+        <v>-57.79332930000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2798147417647631</v>
+      </c>
+      <c r="T85">
+        <v>5.098858955415499</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0.1837</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.01684447043957982</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2017835061000097</v>
+      </c>
+      <c r="C86">
+        <v>-193.4797591596391</v>
+      </c>
+      <c r="D86">
+        <v>146.7922408403609</v>
+      </c>
+      <c r="E86">
+        <v>-20.928</v>
+      </c>
+      <c r="F86">
+        <v>359.772</v>
+      </c>
+      <c r="G86">
+        <v>19.5</v>
+      </c>
+      <c r="H86">
+        <v>47.6</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>7.51</v>
+      </c>
+      <c r="K86">
+        <v>6.41</v>
+      </c>
+      <c r="L86">
+        <v>1.1</v>
+      </c>
+      <c r="M86">
+        <v>66.0901164</v>
+      </c>
+      <c r="N86">
+        <v>-64.99011640000001</v>
+      </c>
+      <c r="O86">
+        <v>-0</v>
+      </c>
+      <c r="P86">
+        <v>-64.99011640000001</v>
+      </c>
+      <c r="Q86">
+        <v>-58.58011640000001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2967219131250606</v>
+      </c>
+      <c r="T86">
+        <v>5.417537640128966</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0.1837</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.01664394102958477</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2035275061000097</v>
+      </c>
+      <c r="C87">
+        <v>-199.0808302874935</v>
+      </c>
+      <c r="D87">
+        <v>145.4741697125065</v>
+      </c>
+      <c r="E87">
+        <v>-16.64499999999998</v>
+      </c>
+      <c r="F87">
+        <v>364.055</v>
+      </c>
+      <c r="G87">
+        <v>19.5</v>
+      </c>
+      <c r="H87">
+        <v>47.6</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>7.51</v>
+      </c>
+      <c r="K87">
+        <v>6.41</v>
+      </c>
+      <c r="L87">
+        <v>1.1</v>
+      </c>
+      <c r="M87">
+        <v>66.8769035</v>
+      </c>
+      <c r="N87">
+        <v>-65.7769035</v>
+      </c>
+      <c r="O87">
+        <v>-0</v>
+      </c>
+      <c r="P87">
+        <v>-65.7769035</v>
+      </c>
+      <c r="Q87">
+        <v>-59.36690350000001</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3158833740000647</v>
+      </c>
+      <c r="T87">
+        <v>5.778706816137563</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0.1837</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.01644812995864853</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2052715061000097</v>
+      </c>
+      <c r="C88">
+        <v>-204.658441718653</v>
+      </c>
+      <c r="D88">
+        <v>144.1795582813471</v>
+      </c>
+      <c r="E88">
+        <v>-12.36199999999997</v>
+      </c>
+      <c r="F88">
+        <v>368.338</v>
+      </c>
+      <c r="G88">
+        <v>19.5</v>
+      </c>
+      <c r="H88">
+        <v>47.6</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>7.51</v>
+      </c>
+      <c r="K88">
+        <v>6.41</v>
+      </c>
+      <c r="L88">
+        <v>1.1</v>
+      </c>
+      <c r="M88">
+        <v>67.66369060000001</v>
+      </c>
+      <c r="N88">
+        <v>-66.56369060000002</v>
+      </c>
+      <c r="O88">
+        <v>-0</v>
+      </c>
+      <c r="P88">
+        <v>-66.56369060000002</v>
+      </c>
+      <c r="Q88">
+        <v>-60.15369060000002</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3377821864286408</v>
+      </c>
+      <c r="T88">
+        <v>6.191471588718819</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0.1837</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.01625687263354791</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2070155061000097</v>
+      </c>
+      <c r="C89">
+        <v>-210.2132142498143</v>
+      </c>
+      <c r="D89">
+        <v>142.9077857501857</v>
+      </c>
+      <c r="E89">
+        <v>-8.079000000000008</v>
+      </c>
+      <c r="F89">
+        <v>372.621</v>
+      </c>
+      <c r="G89">
+        <v>19.5</v>
+      </c>
+      <c r="H89">
+        <v>47.6</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>7.51</v>
+      </c>
+      <c r="K89">
+        <v>6.41</v>
+      </c>
+      <c r="L89">
+        <v>1.1</v>
+      </c>
+      <c r="M89">
+        <v>68.45047769999999</v>
+      </c>
+      <c r="N89">
+        <v>-67.3504777</v>
+      </c>
+      <c r="O89">
+        <v>-0</v>
+      </c>
+      <c r="P89">
+        <v>-67.3504777</v>
+      </c>
+      <c r="Q89">
+        <v>-60.9404777</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3630500469231516</v>
+      </c>
+      <c r="T89">
+        <v>6.667738634004881</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0.1837</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.01607001202856462</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2087595061000097</v>
+      </c>
+      <c r="C90">
+        <v>-215.7457469656096</v>
+      </c>
+      <c r="D90">
+        <v>141.6582530343904</v>
+      </c>
+      <c r="E90">
+        <v>-3.795999999999992</v>
+      </c>
+      <c r="F90">
+        <v>376.904</v>
+      </c>
+      <c r="G90">
+        <v>19.5</v>
+      </c>
+      <c r="H90">
+        <v>47.6</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>7.51</v>
+      </c>
+      <c r="K90">
+        <v>6.41</v>
+      </c>
+      <c r="L90">
+        <v>1.1</v>
+      </c>
+      <c r="M90">
+        <v>69.23726480000001</v>
+      </c>
+      <c r="N90">
+        <v>-68.13726480000001</v>
+      </c>
+      <c r="O90">
+        <v>-0</v>
+      </c>
+      <c r="P90">
+        <v>-68.13726480000001</v>
+      </c>
+      <c r="Q90">
+        <v>-61.72726480000001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.392529217500081</v>
+      </c>
+      <c r="T90">
+        <v>7.223383520171956</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0.1837</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.01588739825551277</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2105035061000097</v>
+      </c>
+      <c r="C91">
+        <v>-221.2566181795892</v>
+      </c>
+      <c r="D91">
+        <v>140.4303818204108</v>
+      </c>
+      <c r="E91">
+        <v>0.4870000000000232</v>
+      </c>
+      <c r="F91">
+        <v>381.187</v>
+      </c>
+      <c r="G91">
+        <v>19.5</v>
+      </c>
+      <c r="H91">
+        <v>47.6</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>7.51</v>
+      </c>
+      <c r="K91">
+        <v>6.41</v>
+      </c>
+      <c r="L91">
+        <v>1.1</v>
+      </c>
+      <c r="M91">
+        <v>70.0240519</v>
+      </c>
+      <c r="N91">
+        <v>-68.92405190000001</v>
+      </c>
+      <c r="O91">
+        <v>-0</v>
+      </c>
+      <c r="P91">
+        <v>-68.92405190000001</v>
+      </c>
+      <c r="Q91">
+        <v>-62.51405190000001</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4273682372728156</v>
+      </c>
+      <c r="T91">
+        <v>7.880054749278497</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0.1837</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.01570888816275418</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2122475061000097</v>
+      </c>
+      <c r="C92">
+        <v>-226.7463863266888</v>
+      </c>
+      <c r="D92">
+        <v>139.2236136733112</v>
+      </c>
+      <c r="E92">
+        <v>4.770000000000039</v>
+      </c>
+      <c r="F92">
+        <v>385.47</v>
+      </c>
+      <c r="G92">
+        <v>19.5</v>
+      </c>
+      <c r="H92">
+        <v>47.6</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>7.51</v>
+      </c>
+      <c r="K92">
+        <v>6.41</v>
+      </c>
+      <c r="L92">
+        <v>1.1</v>
+      </c>
+      <c r="M92">
+        <v>70.810839</v>
+      </c>
+      <c r="N92">
+        <v>-69.71083900000001</v>
+      </c>
+      <c r="O92">
+        <v>-0</v>
+      </c>
+      <c r="P92">
+        <v>-69.71083900000001</v>
+      </c>
+      <c r="Q92">
+        <v>-63.30083900000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4691750610000972</v>
+      </c>
+      <c r="T92">
+        <v>8.668060224206348</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0.1837</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.01553434496094575</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2139915061000097</v>
+      </c>
+      <c r="C93">
+        <v>-232.2155908100719</v>
+      </c>
+      <c r="D93">
+        <v>138.0374091899281</v>
+      </c>
+      <c r="E93">
+        <v>9.053000000000054</v>
+      </c>
+      <c r="F93">
+        <v>389.753</v>
+      </c>
+      <c r="G93">
+        <v>19.5</v>
+      </c>
+      <c r="H93">
+        <v>47.6</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>7.51</v>
+      </c>
+      <c r="K93">
+        <v>6.41</v>
+      </c>
+      <c r="L93">
+        <v>1.1</v>
+      </c>
+      <c r="M93">
+        <v>71.59762610000001</v>
+      </c>
+      <c r="N93">
+        <v>-70.49762610000002</v>
+      </c>
+      <c r="O93">
+        <v>-0</v>
+      </c>
+      <c r="P93">
+        <v>-70.49762610000002</v>
+      </c>
+      <c r="Q93">
+        <v>-64.08762610000002</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.520272290000108</v>
+      </c>
+      <c r="T93">
+        <v>9.631178026895943</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0.1837</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.01536363787346284</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2157355061000097</v>
+      </c>
+      <c r="C94">
+        <v>-237.6647528050468</v>
+      </c>
+      <c r="D94">
+        <v>136.8712471949532</v>
+      </c>
+      <c r="E94">
+        <v>13.33600000000001</v>
+      </c>
+      <c r="F94">
+        <v>394.036</v>
+      </c>
+      <c r="G94">
+        <v>19.5</v>
+      </c>
+      <c r="H94">
+        <v>47.6</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>7.51</v>
+      </c>
+      <c r="K94">
+        <v>6.41</v>
+      </c>
+      <c r="L94">
+        <v>1.1</v>
+      </c>
+      <c r="M94">
+        <v>72.3844132</v>
+      </c>
+      <c r="N94">
+        <v>-71.2844132</v>
+      </c>
+      <c r="O94">
+        <v>-0</v>
+      </c>
+      <c r="P94">
+        <v>-71.2844132</v>
+      </c>
+      <c r="Q94">
+        <v>-64.87441320000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5841438262501217</v>
+      </c>
+      <c r="T94">
+        <v>10.83507528025794</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0.1837</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.01519664180962088</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2174795061000097</v>
+      </c>
+      <c r="C95">
+        <v>-243.0943760225758</v>
+      </c>
+      <c r="D95">
+        <v>135.7246239774242</v>
+      </c>
+      <c r="E95">
+        <v>17.61900000000003</v>
+      </c>
+      <c r="F95">
+        <v>398.319</v>
+      </c>
+      <c r="G95">
+        <v>19.5</v>
+      </c>
+      <c r="H95">
+        <v>47.6</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>7.51</v>
+      </c>
+      <c r="K95">
+        <v>6.41</v>
+      </c>
+      <c r="L95">
+        <v>1.1</v>
+      </c>
+      <c r="M95">
+        <v>73.17120030000001</v>
+      </c>
+      <c r="N95">
+        <v>-72.07120030000002</v>
+      </c>
+      <c r="O95">
+        <v>-0</v>
+      </c>
+      <c r="P95">
+        <v>-72.07120030000002</v>
+      </c>
+      <c r="Q95">
+        <v>-65.66120030000002</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.666264372857282</v>
+      </c>
+      <c r="T95">
+        <v>12.38294317743765</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0.1837</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.01503323705897985</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2192235061000097</v>
+      </c>
+      <c r="C96">
+        <v>-248.5049474347256</v>
+      </c>
+      <c r="D96">
+        <v>134.5970525652744</v>
+      </c>
+      <c r="E96">
+        <v>21.90200000000004</v>
+      </c>
+      <c r="F96">
+        <v>402.602</v>
+      </c>
+      <c r="G96">
+        <v>19.5</v>
+      </c>
+      <c r="H96">
+        <v>47.6</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>7.51</v>
+      </c>
+      <c r="K96">
+        <v>6.41</v>
+      </c>
+      <c r="L96">
+        <v>1.1</v>
+      </c>
+      <c r="M96">
+        <v>73.95798740000001</v>
+      </c>
+      <c r="N96">
+        <v>-72.85798740000001</v>
+      </c>
+      <c r="O96">
+        <v>-0</v>
+      </c>
+      <c r="P96">
+        <v>-72.85798740000001</v>
+      </c>
+      <c r="Q96">
+        <v>-66.44798740000002</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7757584350001626</v>
+      </c>
+      <c r="T96">
+        <v>14.44676704034393</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0.1837</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.01487330900516082</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2209675061000097</v>
+      </c>
+      <c r="C97">
+        <v>-253.8969379642542</v>
+      </c>
+      <c r="D97">
+        <v>133.4880620357459</v>
+      </c>
+      <c r="E97">
+        <v>26.18500000000006</v>
+      </c>
+      <c r="F97">
+        <v>406.885</v>
+      </c>
+      <c r="G97">
+        <v>19.5</v>
+      </c>
+      <c r="H97">
+        <v>47.6</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>7.51</v>
+      </c>
+      <c r="K97">
+        <v>6.41</v>
+      </c>
+      <c r="L97">
+        <v>1.1</v>
+      </c>
+      <c r="M97">
+        <v>74.74477450000001</v>
+      </c>
+      <c r="N97">
+        <v>-73.64477450000001</v>
+      </c>
+      <c r="O97">
+        <v>-0</v>
+      </c>
+      <c r="P97">
+        <v>-73.64477450000001</v>
+      </c>
+      <c r="Q97">
+        <v>-67.23477450000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9290501220001955</v>
+      </c>
+      <c r="T97">
+        <v>17.33612044841272</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0.1837</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.01471674785773813</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2227115061000097</v>
+      </c>
+      <c r="C98">
+        <v>-259.270803140386</v>
+      </c>
+      <c r="D98">
+        <v>132.397196859614</v>
+      </c>
+      <c r="E98">
+        <v>30.46800000000002</v>
+      </c>
+      <c r="F98">
+        <v>411.168</v>
+      </c>
+      <c r="G98">
+        <v>19.5</v>
+      </c>
+      <c r="H98">
+        <v>47.6</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>7.51</v>
+      </c>
+      <c r="K98">
+        <v>6.41</v>
+      </c>
+      <c r="L98">
+        <v>1.1</v>
+      </c>
+      <c r="M98">
+        <v>75.5315616</v>
+      </c>
+      <c r="N98">
+        <v>-74.43156160000001</v>
+      </c>
+      <c r="O98">
+        <v>-0</v>
+      </c>
+      <c r="P98">
+        <v>-74.43156160000001</v>
+      </c>
+      <c r="Q98">
+        <v>-68.02156160000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.158987652500242</v>
+      </c>
+      <c r="T98">
+        <v>21.67015056051585</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0.1837</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.01456344840088664</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2244555061000097</v>
+      </c>
+      <c r="C99">
+        <v>-264.6269837226939</v>
+      </c>
+      <c r="D99">
+        <v>131.3240162773062</v>
+      </c>
+      <c r="E99">
+        <v>34.75100000000003</v>
+      </c>
+      <c r="F99">
+        <v>415.451</v>
+      </c>
+      <c r="G99">
+        <v>19.5</v>
+      </c>
+      <c r="H99">
+        <v>47.6</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>7.51</v>
+      </c>
+      <c r="K99">
+        <v>6.41</v>
+      </c>
+      <c r="L99">
+        <v>1.1</v>
+      </c>
+      <c r="M99">
+        <v>76.3183487</v>
+      </c>
+      <c r="N99">
+        <v>-75.21834870000001</v>
+      </c>
+      <c r="O99">
+        <v>-0</v>
+      </c>
+      <c r="P99">
+        <v>-75.21834870000001</v>
+      </c>
+      <c r="Q99">
+        <v>-68.80834870000001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.542216870000323</v>
+      </c>
+      <c r="T99">
+        <v>28.8935340806878</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0.1837</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.0144133097575786</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2261995061000097</v>
+      </c>
+      <c r="C100">
+        <v>-269.9659062948828</v>
+      </c>
+      <c r="D100">
+        <v>130.2680937051172</v>
+      </c>
+      <c r="E100">
+        <v>39.03399999999999</v>
+      </c>
+      <c r="F100">
+        <v>419.734</v>
+      </c>
+      <c r="G100">
+        <v>19.5</v>
+      </c>
+      <c r="H100">
+        <v>47.6</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>7.51</v>
+      </c>
+      <c r="K100">
+        <v>6.41</v>
+      </c>
+      <c r="L100">
+        <v>1.1</v>
+      </c>
+      <c r="M100">
+        <v>77.1051358</v>
+      </c>
+      <c r="N100">
+        <v>-76.00513580000001</v>
+      </c>
+      <c r="O100">
+        <v>-0</v>
+      </c>
+      <c r="P100">
+        <v>-76.00513580000001</v>
+      </c>
+      <c r="Q100">
+        <v>-69.59513580000001</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.308675305000484</v>
+      </c>
+      <c r="T100">
+        <v>43.34030112103169</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0.1837</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.01426623516821557</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2279435061000097</v>
+      </c>
+      <c r="C101">
+        <v>-275.2879838301552</v>
+      </c>
+      <c r="D101">
+        <v>129.2290161698448</v>
+      </c>
+      <c r="E101">
+        <v>43.31700000000001</v>
+      </c>
+      <c r="F101">
+        <v>424.017</v>
+      </c>
+      <c r="G101">
+        <v>19.5</v>
+      </c>
+      <c r="H101">
+        <v>47.6</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>7.51</v>
+      </c>
+      <c r="K101">
+        <v>6.41</v>
+      </c>
+      <c r="L101">
+        <v>1.1</v>
+      </c>
+      <c r="M101">
+        <v>77.8919229</v>
+      </c>
+      <c r="N101">
+        <v>-76.7919229</v>
+      </c>
+      <c r="O101">
+        <v>-0</v>
+      </c>
+      <c r="P101">
+        <v>-76.7919229</v>
+      </c>
+      <c r="Q101">
+        <v>-70.38192290000001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.608050610000967</v>
+      </c>
+      <c r="T101">
+        <v>86.68060224206339</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0.1837</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.01412213178267796</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
